--- a/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
+++ b/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$E$375</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$E$374</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="351">
   <si>
     <t>Egészségügyi szolgáltató neve</t>
   </si>
@@ -1699,11 +1699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2353,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>84</v>
@@ -4223,7 +4223,7 @@
         <v>83</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>84</v>
@@ -5073,7 +5073,7 @@
         <v>83</v>
       </c>
       <c r="C198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" s="19" t="s">
         <v>84</v>
@@ -7534,272 +7534,272 @@
       <c r="A343" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B343" s="8" t="s">
-        <v>83</v>
+      <c r="B343" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C343" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D343" s="19" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E343" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B344" s="16" t="s">
-        <v>146</v>
+      <c r="B344" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C344" s="1">
-        <v>3</v>
-      </c>
-      <c r="D344" s="19" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="D344" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="E344" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A345" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B345" s="21" t="s">
-        <v>108</v>
+      <c r="B345" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C345" s="1">
         <v>1</v>
       </c>
-      <c r="D345" s="21" t="s">
-        <v>109</v>
+      <c r="D345" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E345" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C346" s="1">
-        <v>1</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>64</v>
+      <c r="B346" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C346" s="34">
+        <v>2</v>
+      </c>
+      <c r="D346" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="E346" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A347" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B347" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C347" s="34">
-        <v>2</v>
+      <c r="B347" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C347" s="9">
+        <v>1</v>
       </c>
       <c r="D347" s="19" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E347" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A348" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B348" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C348" s="9">
-        <v>1</v>
-      </c>
-      <c r="D348" s="19" t="s">
-        <v>91</v>
+      <c r="B348" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C348" s="1">
+        <v>2</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E348" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>75</v>
+      <c r="B349" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C349" s="1">
-        <v>2</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="D349" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="E349" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B350" s="8" t="s">
-        <v>125</v>
+      <c r="B350" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C350" s="1">
         <v>1</v>
       </c>
-      <c r="D350" s="19" t="s">
-        <v>126</v>
+      <c r="D350" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E350" s="32" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C351" s="1">
-        <v>1</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>13</v>
+      <c r="B351" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C351" s="28">
+        <v>1</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E351" s="32" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A352" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B352" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C352" s="28">
-        <v>1</v>
-      </c>
-      <c r="D352" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E352" s="32" t="s">
-        <v>73</v>
+      <c r="B352" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C352" s="1">
+        <v>2</v>
+      </c>
+      <c r="D352" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E352" s="35" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B353" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C353" s="1">
+      <c r="B353" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C353" s="38">
+        <v>5</v>
+      </c>
+      <c r="D353" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E353" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A354" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C354" s="38">
         <v>2</v>
       </c>
-      <c r="D353" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E353" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A354" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B354" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C354" s="38">
-        <v>5</v>
-      </c>
       <c r="D354" s="20" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="E354" s="32" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A355" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B355" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C355" s="38">
+      <c r="A355" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C355" s="1">
         <v>2</v>
       </c>
-      <c r="D355" s="20" t="s">
-        <v>327</v>
+      <c r="D355" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="E355" s="32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B356" s="16" t="s">
-        <v>146</v>
+      <c r="B356" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C356" s="1">
+        <v>1</v>
+      </c>
+      <c r="D356" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E356" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C357" s="1">
         <v>2</v>
       </c>
-      <c r="D356" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E356" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C357" s="1">
-        <v>1</v>
-      </c>
-      <c r="D357" s="19" t="s">
-        <v>101</v>
+      <c r="D357" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E357" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>57</v>
+      <c r="B358" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C358" s="1">
         <v>2</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E358" s="32" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,101 +7807,101 @@
         <v>15</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C359" s="1">
+        <v>1</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E359" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C360" s="1">
+        <v>1</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E360" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C361" s="1">
         <v>2</v>
       </c>
-      <c r="D359" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E359" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
+      <c r="D361" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E361" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A362" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B360" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C360" s="1">
-        <v>1</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E360" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+      <c r="B362" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1</v>
+      </c>
+      <c r="D362" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E362" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A363" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C361" s="1">
-        <v>1</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E361" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="6" t="s">
+      <c r="B363" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C363" s="1">
+        <v>1</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E363" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A364" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C362" s="1">
-        <v>2</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E362" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A363" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C363" s="1">
-        <v>1</v>
-      </c>
-      <c r="D363" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E363" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A364" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C364" s="1">
-        <v>1</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>168</v>
+      <c r="B364" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C364" s="38">
+        <v>3</v>
+      </c>
+      <c r="D364" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E364" s="32" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -7909,67 +7909,67 @@
         <v>15</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C365" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D365" s="20" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E365" s="32" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A366" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B366" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C366" s="38">
-        <v>1</v>
-      </c>
-      <c r="D366" s="20" t="s">
-        <v>328</v>
+      <c r="A366" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B366" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E366" s="32" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A367" s="18" t="s">
+      <c r="A367" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B367" s="25" t="s">
-        <v>159</v>
+      <c r="B367" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C367" s="1">
         <v>1</v>
       </c>
-      <c r="D367" s="21" t="s">
-        <v>160</v>
+      <c r="D367" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E367" s="32" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A368" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B368" s="8" t="s">
-        <v>83</v>
+      <c r="B368" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C368" s="1">
         <v>1</v>
       </c>
       <c r="D368" s="19" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="E368" s="32" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -7977,84 +7977,84 @@
         <v>74</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C369" s="1">
         <v>1</v>
       </c>
       <c r="D369" s="19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E369" s="32" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A370" s="23" t="s">
+      <c r="A370" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B370" s="16" t="s">
-        <v>136</v>
+      <c r="B370" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C370" s="1">
         <v>1</v>
       </c>
-      <c r="D370" s="19" t="s">
-        <v>134</v>
+      <c r="D370" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E370" s="32" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A371" s="6" t="s">
+      <c r="A371" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B371" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C371" s="1">
-        <v>1</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>13</v>
+      <c r="B371" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C371" s="28">
+        <v>1</v>
+      </c>
+      <c r="D371" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E371" s="32" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A372" s="12" t="s">
+      <c r="A372" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B372" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C372" s="28">
-        <v>1</v>
-      </c>
-      <c r="D372" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E372" s="32" t="s">
-        <v>73</v>
+      <c r="B372" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E372" s="35" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A373" s="23" t="s">
+      <c r="A373" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B373" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C373" s="1">
-        <v>1</v>
-      </c>
-      <c r="D373" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E373" s="35" t="s">
-        <v>207</v>
+      <c r="B373" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C373" s="38">
+        <v>2</v>
+      </c>
+      <c r="D373" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E373" s="32" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -8062,36 +8062,20 @@
         <v>74</v>
       </c>
       <c r="B374" s="19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C374" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D374" s="20" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E374" s="32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A375" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B375" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C375" s="38">
-        <v>1</v>
-      </c>
-      <c r="D375" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E375" s="32" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E374"/>
   <sortState ref="A2:E326">
     <sortCondition ref="B2:B326"/>
     <sortCondition ref="A2:A326"/>
@@ -8099,7 +8083,7 @@
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>
     <hyperlink ref="E3:E6" r:id="rId2" display="nyebehaj@kenessey.hu"/>
-    <hyperlink ref="E359" r:id="rId3"/>
+    <hyperlink ref="E358" r:id="rId3"/>
     <hyperlink ref="E298" r:id="rId4"/>
     <hyperlink ref="E335" r:id="rId5"/>
     <hyperlink ref="E32" r:id="rId6"/>
@@ -8108,230 +8092,229 @@
     <hyperlink ref="E82" r:id="rId9"/>
     <hyperlink ref="E47" r:id="rId10"/>
     <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E362" r:id="rId12"/>
+    <hyperlink ref="E361" r:id="rId12"/>
     <hyperlink ref="E168" r:id="rId13"/>
     <hyperlink ref="E304" r:id="rId14"/>
     <hyperlink ref="E99" r:id="rId15"/>
     <hyperlink ref="E144" r:id="rId16"/>
     <hyperlink ref="E296" r:id="rId17"/>
     <hyperlink ref="E176" r:id="rId18"/>
-    <hyperlink ref="E358" r:id="rId19"/>
+    <hyperlink ref="E357" r:id="rId19"/>
     <hyperlink ref="E147" r:id="rId20"/>
-    <hyperlink ref="E27" r:id="rId21"/>
-    <hyperlink ref="E51:E52" r:id="rId22" display="budai.molnar.eva@askhatvan.hu"/>
-    <hyperlink ref="E8" r:id="rId23"/>
-    <hyperlink ref="E43" r:id="rId24"/>
-    <hyperlink ref="E139" r:id="rId25"/>
-    <hyperlink ref="E149" r:id="rId26"/>
-    <hyperlink ref="E163" r:id="rId27"/>
-    <hyperlink ref="E186" r:id="rId28"/>
-    <hyperlink ref="E202" r:id="rId29"/>
-    <hyperlink ref="E228" r:id="rId30"/>
-    <hyperlink ref="E256" r:id="rId31"/>
-    <hyperlink ref="E305" r:id="rId32"/>
-    <hyperlink ref="E328" r:id="rId33"/>
-    <hyperlink ref="E346" r:id="rId34"/>
-    <hyperlink ref="E247" r:id="rId35"/>
-    <hyperlink ref="E52" r:id="rId36"/>
-    <hyperlink ref="E80" r:id="rId37"/>
-    <hyperlink ref="E18" r:id="rId38"/>
-    <hyperlink ref="E208" r:id="rId39"/>
-    <hyperlink ref="E235" r:id="rId40"/>
-    <hyperlink ref="E313" r:id="rId41"/>
-    <hyperlink ref="E352" r:id="rId42"/>
-    <hyperlink ref="E372" r:id="rId43"/>
-    <hyperlink ref="E15" r:id="rId44"/>
-    <hyperlink ref="E64" r:id="rId45"/>
-    <hyperlink ref="E76" r:id="rId46"/>
-    <hyperlink ref="E108" r:id="rId47"/>
-    <hyperlink ref="E140" r:id="rId48"/>
-    <hyperlink ref="E152" r:id="rId49"/>
-    <hyperlink ref="E49" r:id="rId50"/>
-    <hyperlink ref="E129" r:id="rId51"/>
-    <hyperlink ref="E190" r:id="rId52"/>
-    <hyperlink ref="E206" r:id="rId53"/>
-    <hyperlink ref="E274" r:id="rId54"/>
-    <hyperlink ref="E292" r:id="rId55"/>
-    <hyperlink ref="E309" r:id="rId56"/>
-    <hyperlink ref="E233" r:id="rId57"/>
-    <hyperlink ref="E260" r:id="rId58"/>
-    <hyperlink ref="E321" r:id="rId59"/>
-    <hyperlink ref="E349" r:id="rId60"/>
-    <hyperlink ref="E361" r:id="rId61"/>
-    <hyperlink ref="E38" r:id="rId62"/>
-    <hyperlink ref="E148" r:id="rId63"/>
-    <hyperlink ref="E123" r:id="rId64"/>
-    <hyperlink ref="E22" r:id="rId65"/>
-    <hyperlink ref="E184" r:id="rId66"/>
-    <hyperlink ref="E198" r:id="rId67"/>
-    <hyperlink ref="E268" r:id="rId68"/>
-    <hyperlink ref="E302" r:id="rId69"/>
-    <hyperlink ref="E343" r:id="rId70"/>
-    <hyperlink ref="E368" r:id="rId71"/>
-    <hyperlink ref="E282" r:id="rId72"/>
-    <hyperlink ref="E289" r:id="rId73"/>
-    <hyperlink ref="E12" r:id="rId74"/>
-    <hyperlink ref="E102:E108" r:id="rId75" display="kepzes@peterfykh.hu"/>
-    <hyperlink ref="E24" r:id="rId76"/>
-    <hyperlink ref="E119:E130" r:id="rId77" display="hospital@bmkk.eu"/>
-    <hyperlink ref="E181" r:id="rId78"/>
-    <hyperlink ref="E66" r:id="rId79"/>
-    <hyperlink ref="E69" r:id="rId80"/>
-    <hyperlink ref="E265" r:id="rId81"/>
-    <hyperlink ref="E29" r:id="rId82"/>
-    <hyperlink ref="E92" r:id="rId83"/>
-    <hyperlink ref="E199" r:id="rId84"/>
-    <hyperlink ref="E41" r:id="rId85"/>
-    <hyperlink ref="E185" r:id="rId86"/>
-    <hyperlink ref="E224" r:id="rId87"/>
-    <hyperlink ref="E345" r:id="rId88"/>
-    <hyperlink ref="E83" r:id="rId89"/>
-    <hyperlink ref="E117" r:id="rId90"/>
-    <hyperlink ref="E54" r:id="rId91"/>
-    <hyperlink ref="E148:E153" r:id="rId92" display="gyani.eva@toldykorhaz.hu"/>
-    <hyperlink ref="E143" r:id="rId93"/>
-    <hyperlink ref="E136" r:id="rId94"/>
-    <hyperlink ref="E153" r:id="rId95"/>
-    <hyperlink ref="E159:E168" r:id="rId96" display="wolf.bianka@tatabanyakorhaz.hu"/>
-    <hyperlink ref="E2" r:id="rId97"/>
-    <hyperlink ref="E170:E172" r:id="rId98" display="kassai.henrietta@ohk.hu"/>
-    <hyperlink ref="E14" r:id="rId99"/>
-    <hyperlink ref="E48" r:id="rId100"/>
-    <hyperlink ref="E68" r:id="rId101"/>
-    <hyperlink ref="E114" r:id="rId102"/>
-    <hyperlink ref="E205" r:id="rId103"/>
-    <hyperlink ref="E232" r:id="rId104"/>
-    <hyperlink ref="E285" r:id="rId105"/>
-    <hyperlink ref="E308" r:id="rId106"/>
-    <hyperlink ref="E370" r:id="rId107"/>
-    <hyperlink ref="E336" r:id="rId108"/>
-    <hyperlink ref="E207" r:id="rId109"/>
-    <hyperlink ref="E184:E186" r:id="rId110" display="hr@kisvardakorhaz.hu"/>
-    <hyperlink ref="E75" r:id="rId111"/>
-    <hyperlink ref="E107" r:id="rId112"/>
-    <hyperlink ref="E204" r:id="rId113"/>
-    <hyperlink ref="E189" r:id="rId114"/>
-    <hyperlink ref="E34" r:id="rId115"/>
-    <hyperlink ref="E94" r:id="rId116"/>
-    <hyperlink ref="E327" r:id="rId117"/>
-    <hyperlink ref="E241" r:id="rId118"/>
-    <hyperlink ref="E194:E204" r:id="rId119" display="jvarga@mail.fmkorhaz.hu"/>
-    <hyperlink ref="E5" r:id="rId120"/>
-    <hyperlink ref="E206:E210" r:id="rId121" display="bang.agnes@csmekhm.hu"/>
-    <hyperlink ref="E53" r:id="rId122"/>
-    <hyperlink ref="E314" r:id="rId123"/>
-    <hyperlink ref="E242" r:id="rId124"/>
-    <hyperlink ref="E6" r:id="rId125"/>
-    <hyperlink ref="E35" r:id="rId126"/>
-    <hyperlink ref="E4" r:id="rId127"/>
-    <hyperlink ref="E31" r:id="rId128"/>
-    <hyperlink ref="E71" r:id="rId129"/>
-    <hyperlink ref="E93" r:id="rId130"/>
-    <hyperlink ref="E112" r:id="rId131"/>
-    <hyperlink ref="E226" r:id="rId132"/>
-    <hyperlink ref="E246" r:id="rId133"/>
-    <hyperlink ref="E339" r:id="rId134"/>
-    <hyperlink ref="E104" r:id="rId135"/>
-    <hyperlink ref="E119" r:id="rId136"/>
-    <hyperlink ref="E126" r:id="rId137"/>
-    <hyperlink ref="E162" r:id="rId138"/>
-    <hyperlink ref="E182" r:id="rId139"/>
-    <hyperlink ref="E146" r:id="rId140"/>
-    <hyperlink ref="E281" r:id="rId141"/>
-    <hyperlink ref="E175" r:id="rId142"/>
-    <hyperlink ref="E131" r:id="rId143"/>
-    <hyperlink ref="E367" r:id="rId144"/>
-    <hyperlink ref="E59" r:id="rId145"/>
-    <hyperlink ref="E116" r:id="rId146"/>
-    <hyperlink ref="E122" r:id="rId147"/>
-    <hyperlink ref="E201" r:id="rId148"/>
-    <hyperlink ref="E255" r:id="rId149"/>
-    <hyperlink ref="E267" r:id="rId150"/>
-    <hyperlink ref="E287" r:id="rId151"/>
-    <hyperlink ref="E297" r:id="rId152"/>
-    <hyperlink ref="E319" r:id="rId153"/>
-    <hyperlink ref="E326" r:id="rId154"/>
-    <hyperlink ref="E40" r:id="rId155"/>
-    <hyperlink ref="E111" r:id="rId156"/>
-    <hyperlink ref="E270" r:id="rId157"/>
-    <hyperlink ref="E11" r:id="rId158"/>
-    <hyperlink ref="E44" r:id="rId159"/>
-    <hyperlink ref="E60" r:id="rId160"/>
-    <hyperlink ref="E63" r:id="rId161"/>
-    <hyperlink ref="E84" r:id="rId162"/>
-    <hyperlink ref="E96" r:id="rId163"/>
-    <hyperlink ref="E100" r:id="rId164"/>
-    <hyperlink ref="E106" r:id="rId165"/>
-    <hyperlink ref="E118" r:id="rId166"/>
-    <hyperlink ref="E120" r:id="rId167"/>
-    <hyperlink ref="E89" r:id="rId168"/>
-    <hyperlink ref="E133" r:id="rId169"/>
-    <hyperlink ref="E150" r:id="rId170"/>
-    <hyperlink ref="E158" r:id="rId171"/>
-    <hyperlink ref="E165" r:id="rId172"/>
-    <hyperlink ref="E161" r:id="rId173"/>
-    <hyperlink ref="E196" r:id="rId174"/>
-    <hyperlink ref="E203" r:id="rId175"/>
-    <hyperlink ref="E222" r:id="rId176"/>
-    <hyperlink ref="E229" r:id="rId177"/>
-    <hyperlink ref="E244" r:id="rId178"/>
-    <hyperlink ref="E253" r:id="rId179"/>
-    <hyperlink ref="E258" r:id="rId180"/>
-    <hyperlink ref="E273" r:id="rId181"/>
-    <hyperlink ref="E290" r:id="rId182"/>
-    <hyperlink ref="E306" r:id="rId183"/>
-    <hyperlink ref="E320" r:id="rId184"/>
-    <hyperlink ref="E329" r:id="rId185"/>
-    <hyperlink ref="E333" r:id="rId186"/>
-    <hyperlink ref="E347" r:id="rId187"/>
-    <hyperlink ref="E62" r:id="rId188"/>
-    <hyperlink ref="E105" r:id="rId189"/>
-    <hyperlink ref="E128" r:id="rId190"/>
-    <hyperlink ref="E221" r:id="rId191"/>
-    <hyperlink ref="E42" r:id="rId192"/>
-    <hyperlink ref="E23" r:id="rId193"/>
-    <hyperlink ref="E239" r:id="rId194"/>
-    <hyperlink ref="E271" r:id="rId195"/>
-    <hyperlink ref="E303" r:id="rId196"/>
-    <hyperlink ref="E132" r:id="rId197"/>
-    <hyperlink ref="E292:E294" r:id="rId198" display="golaritso@nyiro-opai.hu"/>
-    <hyperlink ref="E20" r:id="rId199"/>
-    <hyperlink ref="E56" r:id="rId200"/>
-    <hyperlink ref="E365" r:id="rId201"/>
-    <hyperlink ref="E354" r:id="rId202"/>
-    <hyperlink ref="E331" r:id="rId203"/>
-    <hyperlink ref="E211" r:id="rId204"/>
-    <hyperlink ref="E98" r:id="rId205"/>
-    <hyperlink ref="E81" r:id="rId206"/>
-    <hyperlink ref="E156" r:id="rId207"/>
-    <hyperlink ref="E159" r:id="rId208"/>
-    <hyperlink ref="E223" r:id="rId209"/>
-    <hyperlink ref="E238" r:id="rId210"/>
-    <hyperlink ref="E334" r:id="rId211"/>
-    <hyperlink ref="E277" r:id="rId212"/>
-    <hyperlink ref="E137" r:id="rId213" display="mailto:dora.szabo@med.unideb.hu"/>
-    <hyperlink ref="E374" r:id="rId214"/>
-    <hyperlink ref="E250" r:id="rId215"/>
-    <hyperlink ref="E323" r:id="rId216"/>
-    <hyperlink ref="E115" r:id="rId217"/>
-    <hyperlink ref="E142" r:id="rId218"/>
-    <hyperlink ref="E160" r:id="rId219"/>
-    <hyperlink ref="E197" r:id="rId220"/>
-    <hyperlink ref="E317" r:id="rId221"/>
-    <hyperlink ref="E19" r:id="rId222"/>
-    <hyperlink ref="E110" r:id="rId223"/>
-    <hyperlink ref="E169" r:id="rId224"/>
-    <hyperlink ref="E25" r:id="rId225" display="intenziv@petz.gyor.hu"/>
-    <hyperlink ref="E57" r:id="rId226" display="orvosigazgato@petz.gyor.hu"/>
-    <hyperlink ref="E101" r:id="rId227" display="orvosigazgato@petz.gyor.hu"/>
-    <hyperlink ref="E134" r:id="rId228" display="czeinera@petz.gyor.hu"/>
-    <hyperlink ref="E171" r:id="rId229" display="oncol.gyor@gmail.com"/>
-    <hyperlink ref="E141" r:id="rId230" display="hegedusi@petz.gyor.hu"/>
-    <hyperlink ref="E217" r:id="rId231" display="mailto:gunther@petz.gyor.hu"/>
-    <hyperlink ref="E318" r:id="rId232" display="nagyr@petz.gyor.hu"/>
-    <hyperlink ref="E366" r:id="rId233" display="mailto:pulmo@petz.gyor.hu"/>
+    <hyperlink ref="E51:E52" r:id="rId21" display="budai.molnar.eva@askhatvan.hu"/>
+    <hyperlink ref="E8" r:id="rId22"/>
+    <hyperlink ref="E43" r:id="rId23"/>
+    <hyperlink ref="E139" r:id="rId24"/>
+    <hyperlink ref="E149" r:id="rId25"/>
+    <hyperlink ref="E163" r:id="rId26"/>
+    <hyperlink ref="E186" r:id="rId27"/>
+    <hyperlink ref="E202" r:id="rId28"/>
+    <hyperlink ref="E228" r:id="rId29"/>
+    <hyperlink ref="E256" r:id="rId30"/>
+    <hyperlink ref="E305" r:id="rId31"/>
+    <hyperlink ref="E328" r:id="rId32"/>
+    <hyperlink ref="E345" r:id="rId33"/>
+    <hyperlink ref="E247" r:id="rId34"/>
+    <hyperlink ref="E52" r:id="rId35"/>
+    <hyperlink ref="E80" r:id="rId36"/>
+    <hyperlink ref="E18" r:id="rId37"/>
+    <hyperlink ref="E208" r:id="rId38"/>
+    <hyperlink ref="E235" r:id="rId39"/>
+    <hyperlink ref="E313" r:id="rId40"/>
+    <hyperlink ref="E351" r:id="rId41"/>
+    <hyperlink ref="E371" r:id="rId42"/>
+    <hyperlink ref="E15" r:id="rId43"/>
+    <hyperlink ref="E64" r:id="rId44"/>
+    <hyperlink ref="E76" r:id="rId45"/>
+    <hyperlink ref="E108" r:id="rId46"/>
+    <hyperlink ref="E140" r:id="rId47"/>
+    <hyperlink ref="E152" r:id="rId48"/>
+    <hyperlink ref="E49" r:id="rId49"/>
+    <hyperlink ref="E129" r:id="rId50"/>
+    <hyperlink ref="E190" r:id="rId51"/>
+    <hyperlink ref="E206" r:id="rId52"/>
+    <hyperlink ref="E274" r:id="rId53"/>
+    <hyperlink ref="E292" r:id="rId54"/>
+    <hyperlink ref="E309" r:id="rId55"/>
+    <hyperlink ref="E233" r:id="rId56"/>
+    <hyperlink ref="E260" r:id="rId57"/>
+    <hyperlink ref="E321" r:id="rId58"/>
+    <hyperlink ref="E348" r:id="rId59"/>
+    <hyperlink ref="E360" r:id="rId60"/>
+    <hyperlink ref="E38" r:id="rId61"/>
+    <hyperlink ref="E148" r:id="rId62"/>
+    <hyperlink ref="E123" r:id="rId63"/>
+    <hyperlink ref="E184" r:id="rId64"/>
+    <hyperlink ref="E198" r:id="rId65"/>
+    <hyperlink ref="E268" r:id="rId66"/>
+    <hyperlink ref="E302" r:id="rId67"/>
+    <hyperlink ref="E367" r:id="rId68"/>
+    <hyperlink ref="E282" r:id="rId69"/>
+    <hyperlink ref="E289" r:id="rId70"/>
+    <hyperlink ref="E12" r:id="rId71"/>
+    <hyperlink ref="E102:E108" r:id="rId72" display="kepzes@peterfykh.hu"/>
+    <hyperlink ref="E119:E130" r:id="rId73" display="hospital@bmkk.eu"/>
+    <hyperlink ref="E181" r:id="rId74"/>
+    <hyperlink ref="E66" r:id="rId75"/>
+    <hyperlink ref="E69" r:id="rId76"/>
+    <hyperlink ref="E265" r:id="rId77"/>
+    <hyperlink ref="E92" r:id="rId78"/>
+    <hyperlink ref="E199" r:id="rId79"/>
+    <hyperlink ref="E41" r:id="rId80"/>
+    <hyperlink ref="E185" r:id="rId81"/>
+    <hyperlink ref="E224" r:id="rId82"/>
+    <hyperlink ref="E344" r:id="rId83"/>
+    <hyperlink ref="E83" r:id="rId84"/>
+    <hyperlink ref="E117" r:id="rId85"/>
+    <hyperlink ref="E54" r:id="rId86"/>
+    <hyperlink ref="E148:E153" r:id="rId87" display="gyani.eva@toldykorhaz.hu"/>
+    <hyperlink ref="E143" r:id="rId88"/>
+    <hyperlink ref="E136" r:id="rId89"/>
+    <hyperlink ref="E153" r:id="rId90"/>
+    <hyperlink ref="E159:E168" r:id="rId91" display="wolf.bianka@tatabanyakorhaz.hu"/>
+    <hyperlink ref="E2" r:id="rId92"/>
+    <hyperlink ref="E170:E172" r:id="rId93" display="kassai.henrietta@ohk.hu"/>
+    <hyperlink ref="E14" r:id="rId94"/>
+    <hyperlink ref="E48" r:id="rId95"/>
+    <hyperlink ref="E68" r:id="rId96"/>
+    <hyperlink ref="E114" r:id="rId97"/>
+    <hyperlink ref="E205" r:id="rId98"/>
+    <hyperlink ref="E232" r:id="rId99"/>
+    <hyperlink ref="E285" r:id="rId100"/>
+    <hyperlink ref="E308" r:id="rId101"/>
+    <hyperlink ref="E369" r:id="rId102"/>
+    <hyperlink ref="E336" r:id="rId103"/>
+    <hyperlink ref="E207" r:id="rId104"/>
+    <hyperlink ref="E184:E186" r:id="rId105" display="hr@kisvardakorhaz.hu"/>
+    <hyperlink ref="E75" r:id="rId106"/>
+    <hyperlink ref="E107" r:id="rId107"/>
+    <hyperlink ref="E204" r:id="rId108"/>
+    <hyperlink ref="E189" r:id="rId109"/>
+    <hyperlink ref="E34" r:id="rId110"/>
+    <hyperlink ref="E94" r:id="rId111"/>
+    <hyperlink ref="E327" r:id="rId112"/>
+    <hyperlink ref="E241" r:id="rId113"/>
+    <hyperlink ref="E194:E204" r:id="rId114" display="jvarga@mail.fmkorhaz.hu"/>
+    <hyperlink ref="E5" r:id="rId115"/>
+    <hyperlink ref="E206:E210" r:id="rId116" display="bang.agnes@csmekhm.hu"/>
+    <hyperlink ref="E53" r:id="rId117"/>
+    <hyperlink ref="E314" r:id="rId118"/>
+    <hyperlink ref="E242" r:id="rId119"/>
+    <hyperlink ref="E6" r:id="rId120"/>
+    <hyperlink ref="E35" r:id="rId121"/>
+    <hyperlink ref="E4" r:id="rId122"/>
+    <hyperlink ref="E31" r:id="rId123"/>
+    <hyperlink ref="E71" r:id="rId124"/>
+    <hyperlink ref="E93" r:id="rId125"/>
+    <hyperlink ref="E112" r:id="rId126"/>
+    <hyperlink ref="E226" r:id="rId127"/>
+    <hyperlink ref="E246" r:id="rId128"/>
+    <hyperlink ref="E339" r:id="rId129"/>
+    <hyperlink ref="E104" r:id="rId130"/>
+    <hyperlink ref="E119" r:id="rId131"/>
+    <hyperlink ref="E126" r:id="rId132"/>
+    <hyperlink ref="E162" r:id="rId133"/>
+    <hyperlink ref="E182" r:id="rId134"/>
+    <hyperlink ref="E146" r:id="rId135"/>
+    <hyperlink ref="E281" r:id="rId136"/>
+    <hyperlink ref="E175" r:id="rId137"/>
+    <hyperlink ref="E131" r:id="rId138"/>
+    <hyperlink ref="E366" r:id="rId139"/>
+    <hyperlink ref="E59" r:id="rId140"/>
+    <hyperlink ref="E116" r:id="rId141"/>
+    <hyperlink ref="E122" r:id="rId142"/>
+    <hyperlink ref="E201" r:id="rId143"/>
+    <hyperlink ref="E255" r:id="rId144"/>
+    <hyperlink ref="E267" r:id="rId145"/>
+    <hyperlink ref="E287" r:id="rId146"/>
+    <hyperlink ref="E297" r:id="rId147"/>
+    <hyperlink ref="E319" r:id="rId148"/>
+    <hyperlink ref="E326" r:id="rId149"/>
+    <hyperlink ref="E40" r:id="rId150"/>
+    <hyperlink ref="E111" r:id="rId151"/>
+    <hyperlink ref="E270" r:id="rId152"/>
+    <hyperlink ref="E11" r:id="rId153"/>
+    <hyperlink ref="E44" r:id="rId154"/>
+    <hyperlink ref="E60" r:id="rId155"/>
+    <hyperlink ref="E63" r:id="rId156"/>
+    <hyperlink ref="E84" r:id="rId157"/>
+    <hyperlink ref="E96" r:id="rId158"/>
+    <hyperlink ref="E100" r:id="rId159"/>
+    <hyperlink ref="E106" r:id="rId160"/>
+    <hyperlink ref="E118" r:id="rId161"/>
+    <hyperlink ref="E120" r:id="rId162"/>
+    <hyperlink ref="E89" r:id="rId163"/>
+    <hyperlink ref="E133" r:id="rId164"/>
+    <hyperlink ref="E150" r:id="rId165"/>
+    <hyperlink ref="E158" r:id="rId166"/>
+    <hyperlink ref="E165" r:id="rId167"/>
+    <hyperlink ref="E161" r:id="rId168"/>
+    <hyperlink ref="E196" r:id="rId169"/>
+    <hyperlink ref="E203" r:id="rId170"/>
+    <hyperlink ref="E222" r:id="rId171"/>
+    <hyperlink ref="E229" r:id="rId172"/>
+    <hyperlink ref="E244" r:id="rId173"/>
+    <hyperlink ref="E253" r:id="rId174"/>
+    <hyperlink ref="E258" r:id="rId175"/>
+    <hyperlink ref="E273" r:id="rId176"/>
+    <hyperlink ref="E290" r:id="rId177"/>
+    <hyperlink ref="E306" r:id="rId178"/>
+    <hyperlink ref="E320" r:id="rId179"/>
+    <hyperlink ref="E329" r:id="rId180"/>
+    <hyperlink ref="E333" r:id="rId181"/>
+    <hyperlink ref="E346" r:id="rId182"/>
+    <hyperlink ref="E62" r:id="rId183"/>
+    <hyperlink ref="E105" r:id="rId184"/>
+    <hyperlink ref="E128" r:id="rId185"/>
+    <hyperlink ref="E221" r:id="rId186"/>
+    <hyperlink ref="E42" r:id="rId187"/>
+    <hyperlink ref="E239" r:id="rId188"/>
+    <hyperlink ref="E271" r:id="rId189"/>
+    <hyperlink ref="E303" r:id="rId190"/>
+    <hyperlink ref="E132" r:id="rId191"/>
+    <hyperlink ref="E292:E294" r:id="rId192" display="golaritso@nyiro-opai.hu"/>
+    <hyperlink ref="E20" r:id="rId193"/>
+    <hyperlink ref="E56" r:id="rId194"/>
+    <hyperlink ref="E364" r:id="rId195"/>
+    <hyperlink ref="E353" r:id="rId196"/>
+    <hyperlink ref="E331" r:id="rId197"/>
+    <hyperlink ref="E211" r:id="rId198"/>
+    <hyperlink ref="E98" r:id="rId199"/>
+    <hyperlink ref="E81" r:id="rId200"/>
+    <hyperlink ref="E156" r:id="rId201"/>
+    <hyperlink ref="E159" r:id="rId202"/>
+    <hyperlink ref="E223" r:id="rId203"/>
+    <hyperlink ref="E238" r:id="rId204"/>
+    <hyperlink ref="E334" r:id="rId205"/>
+    <hyperlink ref="E277" r:id="rId206"/>
+    <hyperlink ref="E137" r:id="rId207" display="mailto:dora.szabo@med.unideb.hu"/>
+    <hyperlink ref="E373" r:id="rId208"/>
+    <hyperlink ref="E250" r:id="rId209"/>
+    <hyperlink ref="E323" r:id="rId210"/>
+    <hyperlink ref="E115" r:id="rId211"/>
+    <hyperlink ref="E142" r:id="rId212"/>
+    <hyperlink ref="E160" r:id="rId213"/>
+    <hyperlink ref="E197" r:id="rId214"/>
+    <hyperlink ref="E317" r:id="rId215"/>
+    <hyperlink ref="E19" r:id="rId216"/>
+    <hyperlink ref="E110" r:id="rId217"/>
+    <hyperlink ref="E169" r:id="rId218"/>
+    <hyperlink ref="E57" r:id="rId219" display="orvosigazgato@petz.gyor.hu"/>
+    <hyperlink ref="E101" r:id="rId220" display="orvosigazgato@petz.gyor.hu"/>
+    <hyperlink ref="E134" r:id="rId221" display="czeinera@petz.gyor.hu"/>
+    <hyperlink ref="E171" r:id="rId222" display="oncol.gyor@gmail.com"/>
+    <hyperlink ref="E141" r:id="rId223" display="hegedusi@petz.gyor.hu"/>
+    <hyperlink ref="E217" r:id="rId224" display="mailto:gunther@petz.gyor.hu"/>
+    <hyperlink ref="E318" r:id="rId225" display="nagyr@petz.gyor.hu"/>
+    <hyperlink ref="E365" r:id="rId226" display="mailto:pulmo@petz.gyor.hu"/>
+    <hyperlink ref="E25" r:id="rId227" display="intenziv@petz.gyor.hu"/>
+    <hyperlink ref="E23" r:id="rId228"/>
+    <hyperlink ref="E24" r:id="rId229"/>
+    <hyperlink ref="E22" r:id="rId230"/>
+    <hyperlink ref="E27" r:id="rId231"/>
+    <hyperlink ref="E29" r:id="rId232"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId234"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId233"/>
 </worksheet>
 </file>
--- a/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
+++ b/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$E$374</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$E$404</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="354">
   <si>
     <t>Egészségügyi szolgáltató neve</t>
   </si>
@@ -1403,14 +1403,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1702,11 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E450"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A375" sqref="A375:E450"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3250,20 +3250,20 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>147</v>
+      <c r="B91" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="36">
+        <v>1</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3271,33 +3271,33 @@
         <v>8</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C92" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>8</v>
+      <c r="A93" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C93" s="36">
-        <v>2</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>352</v>
+        <v>242</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>353</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -3305,1121 +3305,1121 @@
         <v>245</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C94" s="1">
-        <v>5</v>
+        <v>170</v>
+      </c>
+      <c r="C94" s="33">
+        <v>2</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="33">
-        <v>2</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>171</v>
+        <v>309</v>
+      </c>
+      <c r="C95" s="36">
+        <v>3</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>172</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" s="36">
-        <v>3</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>334</v>
+      <c r="A96" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>205</v>
+        <v>104</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="19" t="s">
-        <v>49</v>
+      <c r="D98" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="25" t="s">
-        <v>159</v>
+      <c r="B99" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>160</v>
+      <c r="D99" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" s="1">
+      <c r="B100" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="33">
         <v>1</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>146</v>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
       </c>
-      <c r="D101" s="19" t="s">
-        <v>147</v>
+      <c r="D101" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="36">
+        <v>1</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" s="36">
+        <v>1</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="33">
-        <v>1</v>
-      </c>
-      <c r="D102" s="19" t="s">
+      <c r="C105" s="33">
+        <v>2</v>
+      </c>
+      <c r="D105" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E105" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C104" s="36">
-        <v>1</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" s="19" t="s">
+    <row r="106" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="36">
+        <v>1</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="36">
-        <v>1</v>
-      </c>
-      <c r="D105" s="20" t="s">
+      <c r="C107" s="36">
+        <v>1</v>
+      </c>
+      <c r="D107" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E107" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C107" s="33">
+    <row r="108" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="1">
         <v>2</v>
       </c>
-      <c r="D107" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C108" s="36">
-        <v>1</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>313</v>
+      <c r="D108" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C109" s="36">
-        <v>1</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>352</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>353</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>93</v>
+      <c r="B110" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>112</v>
+      <c r="B111" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>160</v>
+      <c r="B112" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="33">
+        <v>2</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>177</v>
+      <c r="B113" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
-      <c r="D113" s="19" t="s">
-        <v>182</v>
+      <c r="D113" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="33">
-        <v>2</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>171</v>
+      <c r="B114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>140</v>
+      <c r="B115" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+      <c r="D115" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>76</v>
+      <c r="B116" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" s="35">
+        <v>1</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="34" t="s">
-        <v>207</v>
+      <c r="B117" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="36">
+        <v>2</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="35">
+      <c r="A118" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C119" s="36">
-        <v>2</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>352</v>
+      <c r="A119" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>353</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>164</v>
+      <c r="B120" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="36">
+        <v>2</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="36">
+        <v>1</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="21" t="s">
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E124" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="36">
-        <v>2</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E124" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="19" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="33">
+        <v>1</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C125" s="36">
-        <v>1</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="C127" s="36">
+        <v>1</v>
+      </c>
+      <c r="D127" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E127" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B126" s="25" t="s">
+    <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="21" t="s">
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E128" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B128" s="19" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C128" s="33">
-        <v>1</v>
-      </c>
-      <c r="D128" s="19" t="s">
+      <c r="C129" s="33">
+        <v>1</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E129" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" s="19" t="s">
+    <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="35">
+        <v>1</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C129" s="36">
-        <v>1</v>
-      </c>
-      <c r="D129" s="20" t="s">
+      <c r="C131" s="36">
+        <v>1</v>
+      </c>
+      <c r="D131" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E131" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="25" t="s">
+    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="21" t="s">
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E132" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C131" s="33">
-        <v>1</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C132" s="35">
-        <v>1</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
     <row r="133" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="19" t="s">
+      <c r="A133" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C135" s="36">
+        <v>1</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C133" s="36">
-        <v>1</v>
-      </c>
-      <c r="D133" s="20" t="s">
+      <c r="C136" s="36">
+        <v>1</v>
+      </c>
+      <c r="D136" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E136" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="25" t="s">
+    <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-      <c r="D134" s="21" t="s">
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E137" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" s="1">
-        <v>1</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C137" s="36">
-        <v>1</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="36">
-        <v>1</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>352</v>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B139" s="25" t="s">
-        <v>159</v>
+      <c r="B139" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
-      <c r="D139" s="21" t="s">
-        <v>160</v>
+      <c r="D139" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>100</v>
+      <c r="B140" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
-      <c r="D140" s="19" t="s">
-        <v>101</v>
+      <c r="D140" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B141" s="16" t="s">
-        <v>177</v>
+      <c r="B141" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" s="36">
+        <v>1</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="33">
+        <v>2</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="36">
+        <v>1</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="36">
+        <v>1</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E147" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="36">
+        <v>1</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="36">
+        <v>1</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E153" s="31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B144" s="19" t="s">
+    <row r="154" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" s="36">
+        <v>1</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C144" s="36">
-        <v>1</v>
-      </c>
-      <c r="D144" s="20" t="s">
+      <c r="C155" s="36">
+        <v>1</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E155" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B145" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" s="1">
+    <row r="156" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="1">
         <v>2</v>
       </c>
-      <c r="D146" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C147" s="33">
+      <c r="D156" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E156" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" s="36">
+        <v>1</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="1">
         <v>2</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E147" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C148" s="36">
-        <v>1</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B149" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="36">
-        <v>1</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="1">
-        <v>1</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="1">
+      <c r="D158" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E158" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="1">
         <v>2</v>
       </c>
-      <c r="D151" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C152" s="36">
-        <v>1</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E152" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C153" s="36">
-        <v>1</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E153" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C155" s="1">
-        <v>1</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C157" s="36">
-        <v>1</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C158" s="36">
-        <v>1</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E158" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" s="36">
-        <v>1</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E159" s="38" t="s">
-        <v>255</v>
+      <c r="D159" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E159" s="31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,220 +4427,220 @@
         <v>52</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E160" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" s="1">
         <v>2</v>
       </c>
-      <c r="D160" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E160" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E162" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C163" s="1">
-        <v>1</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>160</v>
+      <c r="D163" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>57</v>
+      <c r="B164" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="1">
-        <v>2</v>
+      <c r="B165" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="33">
+        <v>3</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>63</v>
+      <c r="B166" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>64</v>
+      <c r="D166" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B167" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" s="33">
-        <v>3</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>171</v>
+      <c r="B167" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>75</v>
+      <c r="B169" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>76</v>
+      <c r="D169" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>125</v>
+      <c r="B170" s="42" t="s">
+        <v>205</v>
       </c>
       <c r="C170" s="1">
-        <v>3</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E170" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E170" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C171" s="1">
-        <v>1</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="23" t="s">
+      <c r="B171" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C171" s="36">
+        <v>1</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C172" s="1">
-        <v>1</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E172" s="34" t="s">
-        <v>207</v>
+      <c r="B172" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" s="36">
+        <v>1</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4648,72 +4648,72 @@
         <v>52</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="C173" s="36">
         <v>1</v>
       </c>
       <c r="D173" s="39" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="37" t="s">
-        <v>52</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C174" s="36">
-        <v>1</v>
-      </c>
-      <c r="D174" s="39" t="s">
-        <v>318</v>
+        <v>170</v>
+      </c>
+      <c r="C174" s="33">
+        <v>1</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C175" s="36">
+        <v>1</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C175" s="36">
-        <v>1</v>
-      </c>
-      <c r="D175" s="39" t="s">
+      <c r="C176" s="36">
+        <v>1</v>
+      </c>
+      <c r="D176" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="E175" s="32" t="s">
+      <c r="E176" s="32" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C176" s="33">
-        <v>1</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="B177" s="40" t="s">
         <v>262</v>
@@ -4728,194 +4728,194 @@
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="37" t="s">
-        <v>174</v>
+    <row r="178" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C178" s="36">
-        <v>1</v>
-      </c>
-      <c r="D178" s="39" t="s">
-        <v>352</v>
+        <v>170</v>
+      </c>
+      <c r="C178" s="33">
+        <v>1</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="B179" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C179" s="36">
-        <v>1</v>
-      </c>
-      <c r="D179" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E179" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="B180" s="30" t="s">
+      <c r="A179" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C180" s="33">
-        <v>1</v>
-      </c>
-      <c r="D180" s="30" t="s">
+      <c r="C182" s="33">
+        <v>1</v>
+      </c>
+      <c r="D182" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E180" s="32" t="s">
+      <c r="E182" s="31" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B181" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1</v>
-      </c>
-      <c r="D181" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E181" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B183" s="16" t="s">
-        <v>177</v>
+      <c r="B183" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B184" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C184" s="33">
-        <v>1</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>171</v>
+      <c r="B184" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>125</v>
+      <c r="B185" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
       </c>
-      <c r="D185" s="19" t="s">
-        <v>126</v>
+      <c r="D185" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="1">
-        <v>2</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>13</v>
+      <c r="B186" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C186" s="36">
+        <v>1</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C187" s="1">
-        <v>1</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>41</v>
+      <c r="B187" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C187" s="36">
+        <v>1</v>
+      </c>
+      <c r="D187" s="20" t="s">
+        <v>319</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="C188" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>43</v>
       </c>
@@ -4933,127 +4933,127 @@
       </c>
     </row>
     <row r="190" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C190" s="36">
-        <v>1</v>
-      </c>
-      <c r="D190" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>339</v>
+      <c r="A190" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E190" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="37" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C191" s="36">
+        <v>1</v>
+      </c>
+      <c r="D191" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C192" s="1">
         <v>2</v>
       </c>
-      <c r="D191" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B192" s="8" t="s">
+      <c r="D192" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-      <c r="D192" s="19" t="s">
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E192" s="34" t="s">
+      <c r="E195" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C193" s="36">
-        <v>1</v>
-      </c>
-      <c r="D193" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="E193" s="31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C194" s="1">
-        <v>2</v>
-      </c>
-      <c r="D194" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B195" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C195" s="1">
-        <v>2</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E195" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>48</v>
+    <row r="196" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>56</v>
+      <c r="D196" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>205</v>
@@ -5070,206 +5070,206 @@
     </row>
     <row r="198" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>177</v>
+        <v>128</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E199" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>125</v>
+        <v>49</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
-      <c r="D200" s="19" t="s">
-        <v>126</v>
+      <c r="D200" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>48</v>
+      <c r="B201" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B202" s="25" t="s">
-        <v>159</v>
+      <c r="B202" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
-      <c r="D202" s="21" t="s">
-        <v>160</v>
+      <c r="D202" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B203" s="16" t="s">
-        <v>150</v>
+      <c r="B203" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
       </c>
-      <c r="D203" s="19" t="s">
-        <v>151</v>
+      <c r="D203" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>83</v>
+      <c r="B204" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
       </c>
-      <c r="D204" s="19" t="s">
-        <v>84</v>
+      <c r="D204" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B205" s="21" t="s">
-        <v>108</v>
+      <c r="B205" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
       </c>
-      <c r="D205" s="21" t="s">
-        <v>109</v>
+      <c r="D205" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C206" s="1">
-        <v>1</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>64</v>
+      <c r="B206" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B207" s="8" t="s">
-        <v>202</v>
+      <c r="B207" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
-      <c r="D207" s="19" t="s">
-        <v>203</v>
+      <c r="D207" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B208" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C208" s="9">
-        <v>1</v>
-      </c>
-      <c r="D208" s="19" t="s">
-        <v>91</v>
+      <c r="B208" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>140</v>
+      <c r="B209" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>141</v>
+      <c r="D209" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5277,322 +5277,322 @@
         <v>47</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C211" s="1">
-        <v>1</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>126</v>
+        <v>266</v>
+      </c>
+      <c r="C211" s="36">
+        <v>2</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" s="1">
-        <v>1</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>13</v>
+      <c r="B212" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C212" s="36">
+        <v>1</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="37" t="s">
-        <v>47</v>
+      <c r="A213" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C213" s="36">
+        <v>205</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E213" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C215" s="33">
+        <v>1</v>
+      </c>
+      <c r="D215" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C216" s="36">
+        <v>1</v>
+      </c>
+      <c r="D216" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C217" s="36">
+        <v>1</v>
+      </c>
+      <c r="D217" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219" s="1">
         <v>2</v>
       </c>
-      <c r="D213" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E213" s="31" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B214" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C214" s="36">
-        <v>1</v>
-      </c>
-      <c r="D214" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E214" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C215" s="1">
-        <v>1</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E215" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B216" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C216" s="1">
-        <v>1</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E216" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C217" s="33">
-        <v>1</v>
-      </c>
-      <c r="D217" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E217" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C218" s="36">
-        <v>1</v>
-      </c>
-      <c r="D218" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E218" s="31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C219" s="36">
-        <v>1</v>
-      </c>
-      <c r="D219" s="20" t="s">
-        <v>352</v>
+      <c r="D219" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="16" t="s">
-        <v>48</v>
+      <c r="B221" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C221" s="1">
-        <v>2</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>100</v>
+      <c r="B222" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C222" s="1">
-        <v>1</v>
-      </c>
-      <c r="D222" s="19" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B223" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C223" s="1">
-        <v>1</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>160</v>
+      <c r="B223" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C223" s="33">
+        <v>2</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C224" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="E224" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B225" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C225" s="33">
-        <v>2</v>
+      <c r="B225" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="16" t="s">
-        <v>136</v>
+      <c r="B227" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
       </c>
       <c r="D227" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C228" s="1">
-        <v>1</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>76</v>
+      <c r="B228" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C228" s="27">
+        <v>1</v>
+      </c>
+      <c r="D228" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5600,50 +5600,50 @@
         <v>53</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C229" s="1">
         <v>1</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E229" s="31" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B230" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C230" s="27">
-        <v>1</v>
-      </c>
-      <c r="D230" s="22" t="s">
-        <v>72</v>
+      <c r="B230" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C230" s="35">
+        <v>1</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B231" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C231" s="1">
-        <v>1</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>113</v>
+      <c r="B231" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C231" s="36">
+        <v>1</v>
+      </c>
+      <c r="D231" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -5651,1325 +5651,1325 @@
         <v>53</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C232" s="35">
+        <v>205</v>
+      </c>
+      <c r="C232" s="1">
         <v>1</v>
       </c>
       <c r="D232" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E232" s="31" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="E232" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C233" s="36">
-        <v>1</v>
-      </c>
-      <c r="D233" s="20" t="s">
-        <v>276</v>
+      <c r="B233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B234" s="8" t="s">
-        <v>205</v>
+      <c r="B234" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
       </c>
-      <c r="D234" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E234" s="34" t="s">
-        <v>207</v>
+      <c r="D234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>23</v>
+      <c r="B235" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C235" s="1">
         <v>1</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E235" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C237" s="36">
+        <v>1</v>
+      </c>
+      <c r="D237" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E237" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C238" s="36">
+        <v>1</v>
+      </c>
+      <c r="D238" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E238" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C236" s="1">
-        <v>1</v>
-      </c>
-      <c r="D236" s="3" t="s">
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E236" s="31" t="s">
+      <c r="E240" s="31" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" s="1">
-        <v>1</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E237" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C238" s="1">
-        <v>1</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E238" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C239" s="36">
-        <v>1</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="E239" s="31" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B240" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C240" s="36">
-        <v>1</v>
-      </c>
-      <c r="D240" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E240" s="31" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
       </c>
       <c r="D241" s="19" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>13</v>
+      <c r="D242" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C243" s="33">
+        <v>2</v>
+      </c>
+      <c r="D243" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E243" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C244" s="36">
+        <v>1</v>
+      </c>
+      <c r="D244" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E244" s="31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C245" s="36">
+        <v>1</v>
+      </c>
+      <c r="D245" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E245" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" s="28">
+        <v>2</v>
+      </c>
+      <c r="D246" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E246" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C243" s="1">
-        <v>1</v>
-      </c>
-      <c r="D243" s="19" t="s">
+      <c r="C247" s="1">
+        <v>2</v>
+      </c>
+      <c r="D247" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E243" s="31" t="s">
+      <c r="E247" s="31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C244" s="1">
-        <v>1</v>
-      </c>
-      <c r="D244" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E244" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B245" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C245" s="33">
-        <v>2</v>
-      </c>
-      <c r="D245" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E245" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A246" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B246" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C246" s="36">
-        <v>1</v>
-      </c>
-      <c r="D246" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E246" s="31" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B247" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C247" s="36">
-        <v>1</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E247" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B248" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C248" s="28">
-        <v>2</v>
+      <c r="B248" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="E248" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C249" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" s="19" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A250" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B250" s="25" t="s">
-        <v>159</v>
+      <c r="B250" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
-      </c>
-      <c r="D250" s="21" t="s">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B251" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C251" s="1">
-        <v>1</v>
+      <c r="B251" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C251" s="33">
+        <v>4</v>
       </c>
       <c r="D251" s="19" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>63</v>
+      <c r="B252" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C252" s="1">
-        <v>2</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="D252" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E252" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A253" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B253" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C253" s="33">
-        <v>4</v>
+      <c r="B253" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C253" s="9">
+        <v>1</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B254" s="8" t="s">
-        <v>93</v>
+      <c r="B254" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="19" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E254" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A255" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B255" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C255" s="9">
-        <v>1</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>91</v>
+      <c r="B255" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C255" s="1">
+        <v>2</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B256" s="16" t="s">
-        <v>136</v>
+      <c r="B256" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C256" s="1">
         <v>1</v>
       </c>
-      <c r="D256" s="19" t="s">
-        <v>134</v>
+      <c r="D256" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C257" s="1">
-        <v>2</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>76</v>
+      <c r="B257" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C257" s="27">
+        <v>1</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A258" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B258" s="3" t="s">
-        <v>12</v>
+      <c r="B258" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" s="31" t="s">
-        <v>14</v>
+      <c r="D258" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E258" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B259" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C259" s="27">
-        <v>1</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>72</v>
+      <c r="B259" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C259" s="35">
+        <v>3</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C260" s="1">
-        <v>1</v>
-      </c>
-      <c r="D260" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E260" s="34" t="s">
-        <v>207</v>
+      <c r="B260" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C260" s="36">
+        <v>4</v>
+      </c>
+      <c r="D260" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E260" s="31" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C261" s="35">
-        <v>3</v>
+      <c r="B261" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
       </c>
       <c r="D261" s="19" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B262" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C262" s="36">
-        <v>4</v>
-      </c>
-      <c r="D262" s="20" t="s">
-        <v>294</v>
+      <c r="B262" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
       </c>
       <c r="D263" s="19" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="E263" s="31" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="23" t="s">
+      <c r="A264" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B264" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C264" s="1">
-        <v>1</v>
-      </c>
-      <c r="D264" s="19" t="s">
-        <v>151</v>
+      <c r="B264" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C264" s="36">
+        <v>2</v>
+      </c>
+      <c r="D264" s="20" t="s">
+        <v>321</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="23" t="s">
+      <c r="A265" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B265" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C265" s="1">
+      <c r="B265" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C265" s="36">
         <v>2</v>
       </c>
-      <c r="D265" s="19" t="s">
-        <v>147</v>
+      <c r="D265" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="37" t="s">
-        <v>67</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="B267" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C267" s="33">
+        <v>2</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E267" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D269" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E269" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E272" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C273" s="36">
+        <v>1</v>
+      </c>
+      <c r="D273" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B274" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C267" s="36">
-        <v>2</v>
-      </c>
-      <c r="D267" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="E267" s="31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B268" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C268" s="36">
-        <v>2</v>
-      </c>
-      <c r="D268" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E268" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C269" s="33">
-        <v>2</v>
-      </c>
-      <c r="D269" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E269" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C270" s="1">
-        <v>1</v>
-      </c>
-      <c r="D270" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E270" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B271" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C271" s="1">
-        <v>1</v>
-      </c>
-      <c r="D271" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E271" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C272" s="1">
-        <v>1</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E272" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B273" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C273" s="1">
-        <v>1</v>
-      </c>
-      <c r="D273" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E273" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A274" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C274" s="1">
-        <v>1</v>
-      </c>
-      <c r="D274" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E274" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C274" s="36">
+        <v>1</v>
+      </c>
+      <c r="D274" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A275" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="C275" s="36">
         <v>1</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A276" s="37" t="s">
-        <v>70</v>
+      <c r="A276" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C276" s="36">
-        <v>1</v>
-      </c>
-      <c r="D276" s="20" t="s">
-        <v>322</v>
+        <v>229</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="E276" s="31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="37" t="s">
-        <v>70</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C277" s="36">
-        <v>1</v>
-      </c>
-      <c r="D277" s="20" t="s">
-        <v>352</v>
+        <v>170</v>
+      </c>
+      <c r="C277" s="33">
+        <v>1</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B278" s="19" t="s">
-        <v>229</v>
+        <v>68</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" s="19" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B279" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D279" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2</v>
+      </c>
+      <c r="D281" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B282" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C279" s="33">
-        <v>1</v>
-      </c>
-      <c r="D279" s="19" t="s">
+      <c r="C282" s="33">
+        <v>2</v>
+      </c>
+      <c r="D282" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E279" s="31" t="s">
+      <c r="E282" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C280" s="1">
-        <v>1</v>
-      </c>
-      <c r="D280" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E280" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B281" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C281" s="1">
-        <v>1</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E281" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C282" s="1">
-        <v>1</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E282" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="C283" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" s="19" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C284" s="33">
-        <v>2</v>
-      </c>
-      <c r="D284" s="19" t="s">
-        <v>171</v>
+      <c r="B284" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E284" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="19" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E285" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B286" s="3" t="s">
-        <v>75</v>
+      <c r="B286" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C286" s="1">
         <v>1</v>
       </c>
-      <c r="D286" s="3" t="s">
-        <v>76</v>
+      <c r="D286" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E287" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C288" s="35">
+        <v>1</v>
+      </c>
+      <c r="D288" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C289" s="36">
+        <v>1</v>
+      </c>
+      <c r="D289" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D290" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C291" s="1">
         <v>2</v>
       </c>
-      <c r="D287" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E287" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C288" s="1">
-        <v>1</v>
-      </c>
-      <c r="D288" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E288" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C289" s="1">
-        <v>1</v>
-      </c>
-      <c r="D289" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E289" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A290" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C290" s="35">
-        <v>1</v>
-      </c>
-      <c r="D290" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E290" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A291" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C291" s="36">
-        <v>1</v>
-      </c>
-      <c r="D291" s="20" t="s">
-        <v>352</v>
+      <c r="D291" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B292" s="16" t="s">
-        <v>48</v>
+      <c r="B292" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
-      <c r="D292" s="19" t="s">
-        <v>49</v>
+      <c r="D292" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A293" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C293" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A294" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B294" s="25" t="s">
-        <v>159</v>
+      <c r="B294" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C294" s="1">
         <v>1</v>
       </c>
-      <c r="D294" s="21" t="s">
-        <v>160</v>
+      <c r="D294" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="E294" s="31" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A295" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B295" s="8" t="s">
-        <v>83</v>
+      <c r="B295" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" s="19" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C296" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296" s="19" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B297" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C297" s="1">
-        <v>1</v>
+      <c r="B297" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C297" s="33">
+        <v>2</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A298" s="23" t="s">
+      <c r="A298" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B298" s="16" t="s">
-        <v>199</v>
+      <c r="B298" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C298" s="1">
         <v>2</v>
       </c>
-      <c r="D298" s="19" t="s">
-        <v>200</v>
+      <c r="D298" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A299" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B299" s="16" t="s">
-        <v>177</v>
+      <c r="B299" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C299" s="1">
         <v>1</v>
       </c>
-      <c r="D299" s="19" t="s">
-        <v>197</v>
+      <c r="D299" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E299" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A300" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B300" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C300" s="33">
+      <c r="B300" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C300" s="35">
         <v>2</v>
       </c>
       <c r="D300" s="19" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E300" s="31" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C301" s="1">
+      <c r="B301" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C301" s="36">
         <v>2</v>
       </c>
-      <c r="D301" s="3" t="s">
-        <v>76</v>
+      <c r="D301" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B302" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C302" s="1">
-        <v>1</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>13</v>
+      <c r="B302" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C302" s="36">
+        <v>1</v>
+      </c>
+      <c r="D302" s="20" t="s">
+        <v>323</v>
       </c>
       <c r="E302" s="31" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="17" t="s">
+      <c r="A303" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B303" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C303" s="35">
+      <c r="B303" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C303" s="36">
         <v>2</v>
       </c>
-      <c r="D303" s="19" t="s">
-        <v>214</v>
+      <c r="D303" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A304" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B304" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C304" s="36">
-        <v>2</v>
-      </c>
-      <c r="D304" s="20" t="s">
-        <v>282</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1</v>
+      </c>
+      <c r="D304" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A305" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B305" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C305" s="36">
-        <v>1</v>
-      </c>
-      <c r="D305" s="20" t="s">
-        <v>323</v>
+      <c r="A305" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E305" s="31" t="s">
-        <v>344</v>
+        <v>161</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A306" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B306" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C306" s="36">
-        <v>2</v>
-      </c>
-      <c r="D306" s="20" t="s">
-        <v>352</v>
+      <c r="A306" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E306" s="31" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C307" s="1">
-        <v>1</v>
-      </c>
-      <c r="D307" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E307" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A308" s="23" t="s">
+      <c r="A307" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B308" s="16" t="s">
-        <v>146</v>
+      <c r="B307" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C307" s="29">
+        <v>1</v>
+      </c>
+      <c r="D307" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E307" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C308" s="1">
         <v>1</v>
       </c>
-      <c r="D308" s="19" t="s">
-        <v>147</v>
+      <c r="D308" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E308" s="31" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A309" s="18" t="s">
+      <c r="A309" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B309" s="25" t="s">
-        <v>159</v>
+      <c r="B309" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C309" s="1">
         <v>1</v>
       </c>
-      <c r="D309" s="21" t="s">
-        <v>160</v>
+      <c r="D309" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="E309" s="31" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -6977,526 +6977,526 @@
         <v>30</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A311" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C311" s="36">
+        <v>1</v>
+      </c>
+      <c r="D311" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E311" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A312" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+      <c r="D312" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E312" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A313" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D313" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E313" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A314" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C310" s="1">
-        <v>1</v>
-      </c>
-      <c r="D310" s="3" t="s">
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E310" s="31" t="s">
+      <c r="E314" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C311" s="1">
-        <v>1</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E311" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C312" s="1">
-        <v>1</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E312" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A313" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B313" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C313" s="1">
-        <v>1</v>
-      </c>
-      <c r="D313" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E313" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A314" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B314" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C314" s="29">
-        <v>1</v>
-      </c>
-      <c r="D314" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E314" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="37" t="s">
-        <v>30</v>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="B315" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C315" s="33">
+        <v>1</v>
+      </c>
+      <c r="D315" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E315" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A316" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1</v>
+      </c>
+      <c r="D316" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E316" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E317" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A318" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C318" s="36">
+        <v>1</v>
+      </c>
+      <c r="D318" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="E318" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A319" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B319" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C315" s="36">
-        <v>1</v>
-      </c>
-      <c r="D315" s="20" t="s">
+      <c r="C319" s="36">
+        <v>1</v>
+      </c>
+      <c r="D319" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E315" s="31" t="s">
+      <c r="E319" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A316" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B316" s="25" t="s">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B323" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C316" s="1">
-        <v>1</v>
-      </c>
-      <c r="D316" s="21" t="s">
+      <c r="C323" s="1">
+        <v>1</v>
+      </c>
+      <c r="D323" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E316" s="31" t="s">
+      <c r="E323" s="31" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A317" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B317" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C317" s="1">
-        <v>1</v>
-      </c>
-      <c r="D317" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E317" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A318" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C318" s="1">
-        <v>1</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E318" s="31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B319" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C319" s="33">
-        <v>1</v>
-      </c>
-      <c r="D319" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E319" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A320" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C320" s="1">
-        <v>1</v>
-      </c>
-      <c r="D320" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E320" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C321" s="1">
-        <v>1</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E321" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B322" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C322" s="36">
-        <v>1</v>
-      </c>
-      <c r="D322" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E322" s="31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B323" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C323" s="36">
-        <v>1</v>
-      </c>
-      <c r="D323" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E323" s="31" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B324" s="3" t="s">
-        <v>27</v>
+      <c r="B324" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C324" s="1">
         <v>1</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E324" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E325" s="31" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
+      <c r="A326" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>48</v>
+      <c r="B326" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C326" s="1">
         <v>1</v>
       </c>
-      <c r="D326" s="3" t="s">
-        <v>49</v>
+      <c r="D326" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="E326" s="31" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="18" t="s">
+      <c r="A327" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B327" s="25" t="s">
-        <v>159</v>
+      <c r="B327" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C327" s="1">
         <v>1</v>
       </c>
-      <c r="D327" s="21" t="s">
-        <v>160</v>
+      <c r="D327" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="E327" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A328" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>20</v>
+      <c r="B328" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C328" s="1">
         <v>1</v>
       </c>
-      <c r="D328" s="3" t="s">
-        <v>21</v>
+      <c r="D328" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E328" s="31" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B329" s="3" t="s">
-        <v>23</v>
+      <c r="B329" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C329" s="1">
         <v>1</v>
       </c>
-      <c r="D329" s="3" t="s">
-        <v>26</v>
+      <c r="D329" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="E329" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B330" s="16" t="s">
-        <v>150</v>
+      <c r="B330" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C330" s="1">
         <v>1</v>
       </c>
-      <c r="D330" s="19" t="s">
-        <v>151</v>
+      <c r="D330" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E330" s="31" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B331" s="8" t="s">
-        <v>131</v>
+      <c r="B331" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C331" s="1">
         <v>1</v>
       </c>
-      <c r="D331" s="19" t="s">
-        <v>132</v>
+      <c r="D331" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E331" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B332" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C332" s="1">
+      <c r="B332" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C332" s="33">
         <v>1</v>
       </c>
       <c r="D332" s="19" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E332" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A333" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B333" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C333" s="1">
+      <c r="B333" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C333" s="9">
         <v>1</v>
       </c>
       <c r="D333" s="19" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="E333" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A334" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>44</v>
+      <c r="B334" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C334" s="1">
         <v>1</v>
       </c>
-      <c r="D334" s="3" t="s">
-        <v>45</v>
+      <c r="D334" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="E334" s="31" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
+      <c r="A335" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C335" s="1">
         <v>1</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E335" s="31" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B336" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C336" s="33">
-        <v>1</v>
+      <c r="B336" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C336" s="1">
+        <v>2</v>
       </c>
       <c r="D336" s="19" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="E336" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C337" s="9">
+        <v>137</v>
+      </c>
+      <c r="C337" s="1">
         <v>1</v>
       </c>
       <c r="D337" s="19" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="E337" s="31" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A338" s="23" t="s">
+      <c r="A338" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B338" s="16" t="s">
-        <v>136</v>
+      <c r="B338" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C338" s="1">
         <v>1</v>
       </c>
-      <c r="D338" s="19" t="s">
-        <v>134</v>
+      <c r="D338" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E338" s="31" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
+      <c r="A339" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C339" s="1">
-        <v>1</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>76</v>
+      <c r="B339" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C339" s="27">
+        <v>1</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E339" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B340" s="8" t="s">
-        <v>125</v>
+      <c r="B340" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C340" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D340" s="19" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E340" s="31" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7504,214 +7504,214 @@
         <v>19</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C341" s="1">
         <v>1</v>
       </c>
       <c r="D341" s="19" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E341" s="31" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
+      <c r="A342" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>12</v>
+      <c r="B342" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C342" s="1">
         <v>1</v>
       </c>
-      <c r="D342" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E342" s="31" t="s">
-        <v>14</v>
+      <c r="D342" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E342" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A343" s="12" t="s">
+      <c r="A343" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B343" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C343" s="27">
-        <v>1</v>
-      </c>
-      <c r="D343" s="22" t="s">
-        <v>72</v>
+      <c r="B343" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C343" s="36">
+        <v>1</v>
+      </c>
+      <c r="D343" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="E343" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A344" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B344" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C344" s="1">
-        <v>1</v>
-      </c>
-      <c r="D344" s="19" t="s">
-        <v>154</v>
+      <c r="B344" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C344" s="36">
+        <v>1</v>
+      </c>
+      <c r="D344" s="20" t="s">
+        <v>325</v>
       </c>
       <c r="E344" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A345" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B345" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C345" s="1">
-        <v>1</v>
-      </c>
-      <c r="D345" s="19" t="s">
-        <v>113</v>
+      <c r="B345" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C345" s="36">
+        <v>1</v>
+      </c>
+      <c r="D345" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E345" s="31" t="s">
-        <v>114</v>
+        <v>353</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A346" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B346" s="8" t="s">
+      <c r="A346" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C346" s="1">
+        <v>1</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E346" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B347" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C347" s="33">
+        <v>2</v>
+      </c>
+      <c r="D347" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E347" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C348" s="1">
+        <v>1</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E348" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A349" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B349" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C346" s="1">
-        <v>1</v>
-      </c>
-      <c r="D346" s="19" t="s">
+      <c r="C349" s="1">
+        <v>1</v>
+      </c>
+      <c r="D349" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E346" s="34" t="s">
+      <c r="E349" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A347" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B347" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C347" s="36">
-        <v>1</v>
-      </c>
-      <c r="D347" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="E347" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A348" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B348" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C348" s="36">
-        <v>1</v>
-      </c>
-      <c r="D348" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="E348" s="31" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A349" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B349" s="19" t="s">
+    <row r="350" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A350" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C350" s="36">
+        <v>1</v>
+      </c>
+      <c r="D350" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E350" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A351" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B351" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="36">
-        <v>1</v>
-      </c>
-      <c r="D349" s="20" t="s">
+      <c r="C351" s="36">
+        <v>1</v>
+      </c>
+      <c r="D351" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E349" s="31" t="s">
+      <c r="E351" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A350" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B350" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C350" s="1">
-        <v>1</v>
-      </c>
-      <c r="D350" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E350" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C351" s="33">
-        <v>2</v>
-      </c>
-      <c r="D351" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E351" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="352" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>75</v>
+      <c r="A352" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C352" s="1">
-        <v>1</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="D352" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="E352" s="31" t="s">
-        <v>77</v>
+        <v>235</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A353" s="23" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C353" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D353" s="19" t="s">
         <v>206</v>
@@ -7721,973 +7721,913 @@
       </c>
     </row>
     <row r="354" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A354" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B354" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C354" s="36">
-        <v>1</v>
-      </c>
-      <c r="D354" s="20" t="s">
-        <v>273</v>
+      <c r="A354" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C354" s="1">
+        <v>1</v>
+      </c>
+      <c r="D354" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E354" s="31" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A355" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B355" s="19" t="s">
+      <c r="A355" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1</v>
+      </c>
+      <c r="D355" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E355" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A356" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C356" s="1">
+        <v>1</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E356" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C357" s="33">
+        <v>1</v>
+      </c>
+      <c r="D357" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E357" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A358" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C358" s="35">
+        <v>1</v>
+      </c>
+      <c r="D358" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E358" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C359" s="36">
+        <v>1</v>
+      </c>
+      <c r="D359" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E359" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A360" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C360" s="36">
+        <v>1</v>
+      </c>
+      <c r="D360" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E360" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A361" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B361" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C355" s="36">
-        <v>1</v>
-      </c>
-      <c r="D355" s="20" t="s">
+      <c r="C361" s="36">
+        <v>1</v>
+      </c>
+      <c r="D361" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="E355" s="31" t="s">
+      <c r="E361" s="31" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A356" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B356" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C356" s="1">
-        <v>7</v>
-      </c>
-      <c r="D356" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E356" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A357" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C357" s="1">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C362" s="33">
         <v>2</v>
       </c>
-      <c r="D357" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E357" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A358" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B358" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C358" s="1">
-        <v>1</v>
-      </c>
-      <c r="D358" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E358" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A359" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B359" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C359" s="1">
-        <v>1</v>
-      </c>
-      <c r="D359" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E359" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C360" s="1">
-        <v>1</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E360" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C361" s="33">
-        <v>1</v>
-      </c>
-      <c r="D361" s="19" t="s">
+      <c r="D362" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E361" s="31" t="s">
+      <c r="E362" s="31" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A362" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C362" s="35">
-        <v>1</v>
-      </c>
-      <c r="D362" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E362" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="37" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C363" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D363" s="20" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E363" s="31" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="37" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C364" s="36">
         <v>1</v>
       </c>
       <c r="D364" s="20" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E364" s="31" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A365" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B365" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C365" s="36">
-        <v>1</v>
-      </c>
-      <c r="D365" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C365" s="1">
+        <v>1</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E365" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B366" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C366" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A366" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E366" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C367" s="1">
         <v>2</v>
       </c>
-      <c r="D366" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E366" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A367" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C367" s="36">
-        <v>2</v>
-      </c>
-      <c r="D367" s="20" t="s">
-        <v>260</v>
+      <c r="D367" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E367" s="31" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A368" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B368" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C368" s="36">
-        <v>1</v>
-      </c>
-      <c r="D368" s="20" t="s">
-        <v>352</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1</v>
+      </c>
+      <c r="D368" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E368" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A369" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B369" s="3" t="s">
-        <v>20</v>
+      <c r="B369" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C369" s="1">
         <v>1</v>
       </c>
-      <c r="D369" s="3" t="s">
-        <v>21</v>
+      <c r="D369" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E369" s="31" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A370" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B370" s="16" t="s">
-        <v>136</v>
+      <c r="B370" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C370" s="1">
         <v>1</v>
       </c>
-      <c r="D370" s="19" t="s">
-        <v>134</v>
+      <c r="D370" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E370" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B371" s="8" t="s">
-        <v>100</v>
+      <c r="B371" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C371" s="1">
         <v>2</v>
       </c>
       <c r="D371" s="19" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="E371" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B372" s="8" t="s">
-        <v>112</v>
+      <c r="B372" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C372" s="1">
         <v>1</v>
       </c>
-      <c r="D372" s="19" t="s">
-        <v>113</v>
+      <c r="D372" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E372" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B373" s="25" t="s">
-        <v>159</v>
+      <c r="B373" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C373" s="1">
         <v>1</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="E373" s="31" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A374" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>23</v>
+      <c r="B374" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C374" s="1">
         <v>1</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E374" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B375" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C375" s="1">
+      <c r="B375" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C375" s="33">
         <v>2</v>
       </c>
       <c r="D375" s="19" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="E375" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A376" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C376" s="1">
-        <v>1</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>10</v>
+      <c r="B376" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C376" s="9">
+        <v>1</v>
+      </c>
+      <c r="D376" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E376" s="31" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A377" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B377" s="16" t="s">
-        <v>146</v>
+      <c r="B377" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C377" s="1">
-        <v>3</v>
-      </c>
-      <c r="D377" s="19" t="s">
-        <v>147</v>
+        <v>2</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E377" s="31" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B378" s="21" t="s">
-        <v>108</v>
+      <c r="B378" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C378" s="1">
         <v>1</v>
       </c>
-      <c r="D378" s="21" t="s">
-        <v>109</v>
+      <c r="D378" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="E378" s="31" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A379" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>63</v>
+      <c r="B379" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C379" s="1">
         <v>1</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E379" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A380" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B380" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C380" s="33">
-        <v>2</v>
-      </c>
-      <c r="D380" s="19" t="s">
-        <v>171</v>
+      <c r="B380" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C380" s="27">
+        <v>1</v>
+      </c>
+      <c r="D380" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E380" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A381" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C381" s="9">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="C381" s="1">
+        <v>2</v>
       </c>
       <c r="D381" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E381" s="31" t="s">
-        <v>92</v>
+        <v>206</v>
+      </c>
+      <c r="E381" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A382" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B382" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C382" s="1">
+      <c r="B382" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C382" s="36">
+        <v>5</v>
+      </c>
+      <c r="D382" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E382" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A383" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B383" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C383" s="36">
         <v>2</v>
       </c>
-      <c r="D382" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E382" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="18" t="s">
+      <c r="D383" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E383" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A384" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B383" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C383" s="1">
-        <v>1</v>
-      </c>
-      <c r="D383" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E383" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A384" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C384" s="1">
-        <v>1</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>13</v>
+      <c r="B384" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C384" s="36">
+        <v>1</v>
+      </c>
+      <c r="D384" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E384" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A385" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B385" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C385" s="27">
-        <v>1</v>
-      </c>
-      <c r="D385" s="22" t="s">
-        <v>72</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C385" s="1">
+        <v>1</v>
+      </c>
+      <c r="D385" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E385" s="31" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A386" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>205</v>
+      <c r="A386" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C386" s="1">
         <v>2</v>
       </c>
-      <c r="D386" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E386" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A387" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B387" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C387" s="36">
-        <v>5</v>
-      </c>
-      <c r="D387" s="20" t="s">
-        <v>300</v>
+      <c r="D386" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E386" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C387" s="1">
+        <v>2</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E387" s="31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A388" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B388" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C388" s="36">
-        <v>2</v>
-      </c>
-      <c r="D388" s="20" t="s">
-        <v>327</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C388" s="1">
+        <v>1</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E388" s="31" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A389" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B389" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C389" s="36">
-        <v>1</v>
-      </c>
-      <c r="D389" s="20" t="s">
-        <v>352</v>
+      <c r="A389" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E389" s="31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A390" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B390" s="16" t="s">
-        <v>146</v>
+      <c r="B390" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C390" s="1">
         <v>2</v>
       </c>
-      <c r="D390" s="19" t="s">
-        <v>147</v>
+      <c r="D390" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E390" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="C391" s="1">
         <v>1</v>
       </c>
       <c r="D391" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E391" s="31" t="s">
-        <v>102</v>
+        <v>206</v>
+      </c>
+      <c r="E391" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>57</v>
+      <c r="B392" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C392" s="1">
+        <v>1</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E392" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A393" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C393" s="36">
+        <v>3</v>
+      </c>
+      <c r="D393" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E393" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A394" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C394" s="36">
+        <v>1</v>
+      </c>
+      <c r="D394" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E394" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A395" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C395" s="1">
         <v>2</v>
       </c>
-      <c r="D392" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E392" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C393" s="1">
-        <v>2</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E393" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C394" s="1">
-        <v>1</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E394" s="31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A395" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C395" s="1">
-        <v>1</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>76</v>
+      <c r="D395" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="E395" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A396" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B396" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C396" s="1">
-        <v>2</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D396" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="E396" s="31" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A397" s="23" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B397" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C397" s="1">
+        <v>1</v>
+      </c>
+      <c r="D397" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E397" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A398" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C398" s="1">
+        <v>1</v>
+      </c>
+      <c r="D398" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E398" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="1">
+        <v>1</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A400" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B400" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C400" s="27">
+        <v>1</v>
+      </c>
+      <c r="D400" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E400" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A401" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B401" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C397" s="1">
-        <v>1</v>
-      </c>
-      <c r="D397" s="19" t="s">
+      <c r="C401" s="1">
+        <v>1</v>
+      </c>
+      <c r="D401" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="E397" s="34" t="s">
+      <c r="E401" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A398" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C398" s="1">
-        <v>1</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E398" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A399" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B399" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C399" s="36">
-        <v>3</v>
-      </c>
-      <c r="D399" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="E399" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A400" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B400" s="19" t="s">
+    <row r="402" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A402" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B402" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C402" s="36">
+        <v>2</v>
+      </c>
+      <c r="D402" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E402" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A403" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B403" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C400" s="36">
-        <v>1</v>
-      </c>
-      <c r="D400" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="E400" s="31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A401" s="18" t="s">
+      <c r="C403" s="36">
+        <v>1</v>
+      </c>
+      <c r="D403" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E403" s="31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A404" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B401" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C401" s="1">
-        <v>1</v>
-      </c>
-      <c r="D401" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E401" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A402" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C402" s="1">
-        <v>1</v>
-      </c>
-      <c r="D402" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E402" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A403" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B403" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C403" s="1">
-        <v>1</v>
-      </c>
-      <c r="D403" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E403" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A404" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B404" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C404" s="1">
-        <v>1</v>
-      </c>
-      <c r="D404" s="19" t="s">
-        <v>134</v>
+      <c r="B404" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C404" s="36">
+        <v>1</v>
+      </c>
+      <c r="D404" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E404" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A405" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C405" s="1">
-        <v>1</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E405" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A406" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B406" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C406" s="27">
-        <v>1</v>
-      </c>
-      <c r="D406" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E406" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A407" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C407" s="1">
-        <v>1</v>
-      </c>
-      <c r="D407" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E407" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A408" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B408" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C408" s="36">
-        <v>2</v>
-      </c>
-      <c r="D408" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E408" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A409" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C409" s="36">
-        <v>1</v>
-      </c>
-      <c r="D409" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E409" s="31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A410" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B410" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C410" s="36">
-        <v>1</v>
-      </c>
-      <c r="D410" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E410" s="31" t="s">
         <v>353</v>
       </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="37"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="20"/>
+      <c r="E405" s="31"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="37"/>
+      <c r="B406" s="19"/>
+      <c r="C406" s="36"/>
+      <c r="D406" s="20"/>
+      <c r="E406" s="31"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="37"/>
+      <c r="B407" s="19"/>
+      <c r="C407" s="36"/>
+      <c r="D407" s="20"/>
+      <c r="E407" s="31"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="37"/>
+      <c r="B408" s="19"/>
+      <c r="C408" s="36"/>
+      <c r="D408" s="20"/>
+      <c r="E408" s="31"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="37"/>
+      <c r="B409" s="19"/>
+      <c r="C409" s="36"/>
+      <c r="D409" s="20"/>
+      <c r="E409" s="31"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="37"/>
+      <c r="B410" s="19"/>
+      <c r="C410" s="36"/>
+      <c r="D410" s="20"/>
+      <c r="E410" s="31"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="37"/>
@@ -8892,89 +8832,7 @@
       <c r="D439" s="20"/>
       <c r="E439" s="31"/>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="37"/>
-      <c r="B440" s="19"/>
-      <c r="C440" s="36"/>
-      <c r="D440" s="20"/>
-      <c r="E440" s="31"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="37"/>
-      <c r="B441" s="19"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="20"/>
-      <c r="E441" s="31"/>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="37"/>
-      <c r="B442" s="19"/>
-      <c r="C442" s="36"/>
-      <c r="D442" s="20"/>
-      <c r="E442" s="31"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="37"/>
-      <c r="B443" s="19"/>
-      <c r="C443" s="36"/>
-      <c r="D443" s="20"/>
-      <c r="E443" s="31"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="37"/>
-      <c r="B444" s="19"/>
-      <c r="C444" s="36"/>
-      <c r="D444" s="20"/>
-      <c r="E444" s="31"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="37"/>
-      <c r="B445" s="19"/>
-      <c r="C445" s="36"/>
-      <c r="D445" s="20"/>
-      <c r="E445" s="31"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="37"/>
-      <c r="B446" s="19"/>
-      <c r="C446" s="36"/>
-      <c r="D446" s="20"/>
-      <c r="E446" s="31"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="37"/>
-      <c r="B447" s="19"/>
-      <c r="C447" s="36"/>
-      <c r="D447" s="20"/>
-      <c r="E447" s="31"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="37"/>
-      <c r="B448" s="19"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="20"/>
-      <c r="E448" s="31"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="37"/>
-      <c r="B449" s="19"/>
-      <c r="C449" s="36"/>
-      <c r="D449" s="20"/>
-      <c r="E449" s="31"/>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="37"/>
-      <c r="B450" s="19"/>
-      <c r="C450" s="36"/>
-      <c r="D450" s="20"/>
-      <c r="E450" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E374">
-    <sortState ref="A2:E410">
-      <sortCondition ref="A1:A374"/>
-    </sortState>
-  </autoFilter>
   <sortState ref="A2:E326">
     <sortCondition ref="B2:B326"/>
     <sortCondition ref="A2:A326"/>
@@ -8982,240 +8840,241 @@
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1"/>
     <hyperlink ref="E3:E6" r:id="rId2" display="nyebehaj@kenessey.hu"/>
-    <hyperlink ref="E393" r:id="rId3"/>
-    <hyperlink ref="E328" r:id="rId4"/>
-    <hyperlink ref="E369" r:id="rId5"/>
+    <hyperlink ref="E387" r:id="rId3"/>
+    <hyperlink ref="E324" r:id="rId4"/>
+    <hyperlink ref="E365" r:id="rId5"/>
     <hyperlink ref="E34" r:id="rId6"/>
-    <hyperlink ref="E312" r:id="rId7"/>
-    <hyperlink ref="E238" r:id="rId8"/>
+    <hyperlink ref="E308" r:id="rId7"/>
+    <hyperlink ref="E236" r:id="rId8"/>
     <hyperlink ref="E87" r:id="rId9"/>
     <hyperlink ref="E49" r:id="rId10"/>
     <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E396" r:id="rId12"/>
-    <hyperlink ref="E187" r:id="rId13"/>
-    <hyperlink ref="E334" r:id="rId14"/>
-    <hyperlink ref="E106" r:id="rId15"/>
-    <hyperlink ref="E161" r:id="rId16"/>
-    <hyperlink ref="E326" r:id="rId17"/>
-    <hyperlink ref="E196" r:id="rId18"/>
-    <hyperlink ref="E392" r:id="rId19"/>
-    <hyperlink ref="E164" r:id="rId20"/>
+    <hyperlink ref="E390" r:id="rId12"/>
+    <hyperlink ref="E185" r:id="rId13"/>
+    <hyperlink ref="E330" r:id="rId14"/>
+    <hyperlink ref="E104" r:id="rId15"/>
+    <hyperlink ref="E159" r:id="rId16"/>
+    <hyperlink ref="E322" r:id="rId17"/>
+    <hyperlink ref="E194" r:id="rId18"/>
+    <hyperlink ref="E386" r:id="rId19"/>
+    <hyperlink ref="E162" r:id="rId20"/>
     <hyperlink ref="E51:E52" r:id="rId21" display="budai.molnar.eva@askhatvan.hu"/>
     <hyperlink ref="E8" r:id="rId22"/>
     <hyperlink ref="E45" r:id="rId23"/>
-    <hyperlink ref="E155" r:id="rId24"/>
-    <hyperlink ref="E166" r:id="rId25"/>
-    <hyperlink ref="E182" r:id="rId26"/>
-    <hyperlink ref="E206" r:id="rId27"/>
-    <hyperlink ref="E224" r:id="rId28"/>
-    <hyperlink ref="E252" r:id="rId29"/>
-    <hyperlink ref="E282" r:id="rId30"/>
-    <hyperlink ref="E335" r:id="rId31"/>
-    <hyperlink ref="E360" r:id="rId32"/>
-    <hyperlink ref="E379" r:id="rId33"/>
-    <hyperlink ref="E272" r:id="rId34"/>
+    <hyperlink ref="E152" r:id="rId24"/>
+    <hyperlink ref="E164" r:id="rId25"/>
+    <hyperlink ref="E180" r:id="rId26"/>
+    <hyperlink ref="E204" r:id="rId27"/>
+    <hyperlink ref="E222" r:id="rId28"/>
+    <hyperlink ref="E250" r:id="rId29"/>
+    <hyperlink ref="E280" r:id="rId30"/>
+    <hyperlink ref="E331" r:id="rId31"/>
+    <hyperlink ref="E356" r:id="rId32"/>
+    <hyperlink ref="E374" r:id="rId33"/>
+    <hyperlink ref="E270" r:id="rId34"/>
     <hyperlink ref="E54" r:id="rId35"/>
     <hyperlink ref="E85" r:id="rId36"/>
     <hyperlink ref="E18" r:id="rId37"/>
-    <hyperlink ref="E230" r:id="rId38"/>
-    <hyperlink ref="E259" r:id="rId39"/>
-    <hyperlink ref="E343" r:id="rId40"/>
-    <hyperlink ref="E385" r:id="rId41"/>
-    <hyperlink ref="E406" r:id="rId42"/>
+    <hyperlink ref="E228" r:id="rId38"/>
+    <hyperlink ref="E257" r:id="rId39"/>
+    <hyperlink ref="E339" r:id="rId40"/>
+    <hyperlink ref="E380" r:id="rId41"/>
+    <hyperlink ref="E400" r:id="rId42"/>
     <hyperlink ref="E15" r:id="rId43"/>
     <hyperlink ref="E68" r:id="rId44"/>
     <hyperlink ref="E81" r:id="rId45"/>
-    <hyperlink ref="E116" r:id="rId46"/>
-    <hyperlink ref="E156" r:id="rId47"/>
-    <hyperlink ref="E169" r:id="rId48"/>
+    <hyperlink ref="E114" r:id="rId46"/>
+    <hyperlink ref="E153" r:id="rId47"/>
+    <hyperlink ref="E167" r:id="rId48"/>
     <hyperlink ref="E51" r:id="rId49"/>
-    <hyperlink ref="E142" r:id="rId50"/>
-    <hyperlink ref="E210" r:id="rId51"/>
-    <hyperlink ref="E228" r:id="rId52"/>
-    <hyperlink ref="E301" r:id="rId53"/>
-    <hyperlink ref="E321" r:id="rId54"/>
-    <hyperlink ref="E339" r:id="rId55"/>
-    <hyperlink ref="E257" r:id="rId56"/>
-    <hyperlink ref="E286" r:id="rId57"/>
-    <hyperlink ref="E352" r:id="rId58"/>
-    <hyperlink ref="E382" r:id="rId59"/>
-    <hyperlink ref="E395" r:id="rId60"/>
+    <hyperlink ref="E140" r:id="rId50"/>
+    <hyperlink ref="E208" r:id="rId51"/>
+    <hyperlink ref="E226" r:id="rId52"/>
+    <hyperlink ref="E298" r:id="rId53"/>
+    <hyperlink ref="E317" r:id="rId54"/>
+    <hyperlink ref="E335" r:id="rId55"/>
+    <hyperlink ref="E255" r:id="rId56"/>
+    <hyperlink ref="E284" r:id="rId57"/>
+    <hyperlink ref="E348" r:id="rId58"/>
+    <hyperlink ref="E377" r:id="rId59"/>
+    <hyperlink ref="E389" r:id="rId60"/>
     <hyperlink ref="E40" r:id="rId61"/>
-    <hyperlink ref="E165" r:id="rId62"/>
-    <hyperlink ref="E135" r:id="rId63"/>
-    <hyperlink ref="E204" r:id="rId64"/>
-    <hyperlink ref="E220" r:id="rId65"/>
-    <hyperlink ref="E295" r:id="rId66"/>
-    <hyperlink ref="E332" r:id="rId67"/>
-    <hyperlink ref="E402" r:id="rId68"/>
-    <hyperlink ref="E310" r:id="rId69"/>
-    <hyperlink ref="E318" r:id="rId70"/>
+    <hyperlink ref="E163" r:id="rId62"/>
+    <hyperlink ref="E133" r:id="rId63"/>
+    <hyperlink ref="E202" r:id="rId64"/>
+    <hyperlink ref="E218" r:id="rId65"/>
+    <hyperlink ref="E293" r:id="rId66"/>
+    <hyperlink ref="E328" r:id="rId67"/>
+    <hyperlink ref="E397" r:id="rId68"/>
+    <hyperlink ref="E306" r:id="rId69"/>
+    <hyperlink ref="E314" r:id="rId70"/>
     <hyperlink ref="E12" r:id="rId71"/>
-    <hyperlink ref="E102:E108" r:id="rId72" display="kepzes@peterfykh.hu"/>
-    <hyperlink ref="E119:E130" r:id="rId73" display="hospital@bmkk.eu"/>
-    <hyperlink ref="E201" r:id="rId74"/>
+    <hyperlink ref="E100:E106" r:id="rId72" display="kepzes@peterfykh.hu"/>
+    <hyperlink ref="E117:E128" r:id="rId73" display="hospital@bmkk.eu"/>
+    <hyperlink ref="E199" r:id="rId74"/>
     <hyperlink ref="E70" r:id="rId75"/>
     <hyperlink ref="E74" r:id="rId76"/>
-    <hyperlink ref="E292" r:id="rId77"/>
-    <hyperlink ref="E98" r:id="rId78"/>
-    <hyperlink ref="E221" r:id="rId79"/>
+    <hyperlink ref="E290" r:id="rId77"/>
+    <hyperlink ref="E97" r:id="rId78"/>
+    <hyperlink ref="E219" r:id="rId79"/>
     <hyperlink ref="E43" r:id="rId80"/>
-    <hyperlink ref="E205" r:id="rId81"/>
-    <hyperlink ref="E248" r:id="rId82"/>
-    <hyperlink ref="E378" r:id="rId83"/>
+    <hyperlink ref="E203" r:id="rId81"/>
+    <hyperlink ref="E246" r:id="rId82"/>
+    <hyperlink ref="E373" r:id="rId83"/>
     <hyperlink ref="E88" r:id="rId84"/>
-    <hyperlink ref="E127" r:id="rId85"/>
+    <hyperlink ref="E125" r:id="rId85"/>
     <hyperlink ref="E56" r:id="rId86"/>
-    <hyperlink ref="E148:E153" r:id="rId87" display="gyani.eva@toldykorhaz.hu"/>
-    <hyperlink ref="E160" r:id="rId88"/>
-    <hyperlink ref="E151" r:id="rId89"/>
-    <hyperlink ref="E170" r:id="rId90"/>
-    <hyperlink ref="E159:E168" r:id="rId91" display="wolf.bianka@tatabanyakorhaz.hu"/>
+    <hyperlink ref="E146:E151" r:id="rId87" display="gyani.eva@toldykorhaz.hu"/>
+    <hyperlink ref="E158" r:id="rId88"/>
+    <hyperlink ref="E149" r:id="rId89"/>
+    <hyperlink ref="E168" r:id="rId90"/>
+    <hyperlink ref="E156:E165" r:id="rId91" display="wolf.bianka@tatabanyakorhaz.hu"/>
     <hyperlink ref="E2" r:id="rId92"/>
-    <hyperlink ref="E170:E172" r:id="rId93" display="kassai.henrietta@ohk.hu"/>
+    <hyperlink ref="E167:E169" r:id="rId93" display="kassai.henrietta@ohk.hu"/>
     <hyperlink ref="E14" r:id="rId94"/>
     <hyperlink ref="E50" r:id="rId95"/>
     <hyperlink ref="E73" r:id="rId96"/>
-    <hyperlink ref="E123" r:id="rId97"/>
-    <hyperlink ref="E227" r:id="rId98"/>
-    <hyperlink ref="E256" r:id="rId99"/>
-    <hyperlink ref="E313" r:id="rId100"/>
-    <hyperlink ref="E338" r:id="rId101"/>
-    <hyperlink ref="E404" r:id="rId102"/>
-    <hyperlink ref="E370" r:id="rId103"/>
-    <hyperlink ref="E229" r:id="rId104"/>
-    <hyperlink ref="E184:E186" r:id="rId105" display="hr@kisvardakorhaz.hu"/>
+    <hyperlink ref="E121" r:id="rId97"/>
+    <hyperlink ref="E225" r:id="rId98"/>
+    <hyperlink ref="E254" r:id="rId99"/>
+    <hyperlink ref="E309" r:id="rId100"/>
+    <hyperlink ref="E334" r:id="rId101"/>
+    <hyperlink ref="E398" r:id="rId102"/>
+    <hyperlink ref="E366" r:id="rId103"/>
+    <hyperlink ref="E227" r:id="rId104"/>
+    <hyperlink ref="E181:E183" r:id="rId105" display="hr@kisvardakorhaz.hu"/>
     <hyperlink ref="E80" r:id="rId106"/>
-    <hyperlink ref="E115" r:id="rId107"/>
-    <hyperlink ref="E226" r:id="rId108"/>
-    <hyperlink ref="E209" r:id="rId109"/>
+    <hyperlink ref="E113" r:id="rId107"/>
+    <hyperlink ref="E224" r:id="rId108"/>
+    <hyperlink ref="E207" r:id="rId109"/>
     <hyperlink ref="E36" r:id="rId110"/>
-    <hyperlink ref="E100" r:id="rId111"/>
-    <hyperlink ref="E359" r:id="rId112"/>
-    <hyperlink ref="E265" r:id="rId113"/>
-    <hyperlink ref="E194:E204" r:id="rId114" display="jvarga@mail.fmkorhaz.hu"/>
-    <hyperlink ref="E5" r:id="rId115"/>
-    <hyperlink ref="E206:E210" r:id="rId116" display="bang.agnes@csmekhm.hu"/>
-    <hyperlink ref="E55" r:id="rId117"/>
-    <hyperlink ref="E344" r:id="rId118"/>
-    <hyperlink ref="E266" r:id="rId119"/>
-    <hyperlink ref="E6" r:id="rId120"/>
-    <hyperlink ref="E37" r:id="rId121"/>
-    <hyperlink ref="E4" r:id="rId122"/>
-    <hyperlink ref="E33" r:id="rId123"/>
-    <hyperlink ref="E76" r:id="rId124"/>
-    <hyperlink ref="E99" r:id="rId125"/>
-    <hyperlink ref="E121" r:id="rId126"/>
-    <hyperlink ref="E250" r:id="rId127"/>
-    <hyperlink ref="E271" r:id="rId128"/>
-    <hyperlink ref="E373" r:id="rId129"/>
-    <hyperlink ref="E112" r:id="rId130"/>
-    <hyperlink ref="E130" r:id="rId131"/>
-    <hyperlink ref="E139" r:id="rId132"/>
-    <hyperlink ref="E181" r:id="rId133"/>
-    <hyperlink ref="E202" r:id="rId134"/>
-    <hyperlink ref="E163" r:id="rId135"/>
-    <hyperlink ref="E309" r:id="rId136"/>
-    <hyperlink ref="E195" r:id="rId137"/>
-    <hyperlink ref="E145" r:id="rId138"/>
-    <hyperlink ref="E401" r:id="rId139"/>
-    <hyperlink ref="E62" r:id="rId140"/>
-    <hyperlink ref="E126" r:id="rId141"/>
-    <hyperlink ref="E134" r:id="rId142"/>
-    <hyperlink ref="E223" r:id="rId143"/>
-    <hyperlink ref="E281" r:id="rId144"/>
-    <hyperlink ref="E294" r:id="rId145"/>
-    <hyperlink ref="E316" r:id="rId146"/>
-    <hyperlink ref="E327" r:id="rId147"/>
-    <hyperlink ref="E350" r:id="rId148"/>
-    <hyperlink ref="E358" r:id="rId149"/>
-    <hyperlink ref="E42" r:id="rId150"/>
-    <hyperlink ref="E120" r:id="rId151"/>
-    <hyperlink ref="E297" r:id="rId152"/>
-    <hyperlink ref="E11" r:id="rId153"/>
-    <hyperlink ref="E46" r:id="rId154"/>
-    <hyperlink ref="E63" r:id="rId155"/>
-    <hyperlink ref="E67" r:id="rId156"/>
-    <hyperlink ref="E89" r:id="rId157"/>
-    <hyperlink ref="E102" r:id="rId158"/>
-    <hyperlink ref="E107" r:id="rId159"/>
-    <hyperlink ref="E114" r:id="rId160"/>
-    <hyperlink ref="E128" r:id="rId161"/>
-    <hyperlink ref="E131" r:id="rId162"/>
-    <hyperlink ref="E95" r:id="rId163"/>
-    <hyperlink ref="E147" r:id="rId164"/>
-    <hyperlink ref="E167" r:id="rId165"/>
-    <hyperlink ref="E176" r:id="rId166"/>
-    <hyperlink ref="E184" r:id="rId167"/>
-    <hyperlink ref="E180" r:id="rId168"/>
-    <hyperlink ref="E217" r:id="rId169"/>
-    <hyperlink ref="E225" r:id="rId170"/>
-    <hyperlink ref="E245" r:id="rId171"/>
-    <hyperlink ref="E253" r:id="rId172"/>
-    <hyperlink ref="E269" r:id="rId173"/>
-    <hyperlink ref="E279" r:id="rId174"/>
-    <hyperlink ref="E284" r:id="rId175"/>
-    <hyperlink ref="E300" r:id="rId176"/>
-    <hyperlink ref="E319" r:id="rId177"/>
-    <hyperlink ref="E336" r:id="rId178"/>
-    <hyperlink ref="E351" r:id="rId179"/>
-    <hyperlink ref="E361" r:id="rId180"/>
-    <hyperlink ref="E366" r:id="rId181"/>
-    <hyperlink ref="E380" r:id="rId182"/>
-    <hyperlink ref="E66" r:id="rId183"/>
-    <hyperlink ref="E113" r:id="rId184"/>
-    <hyperlink ref="E141" r:id="rId185"/>
-    <hyperlink ref="E244" r:id="rId186"/>
-    <hyperlink ref="E44" r:id="rId187"/>
-    <hyperlink ref="E263" r:id="rId188"/>
-    <hyperlink ref="E298" r:id="rId189"/>
-    <hyperlink ref="E333" r:id="rId190"/>
-    <hyperlink ref="E146" r:id="rId191"/>
-    <hyperlink ref="E292:E294" r:id="rId192" display="golaritso@nyiro-opai.hu"/>
-    <hyperlink ref="E20" r:id="rId193"/>
-    <hyperlink ref="E58" r:id="rId194"/>
-    <hyperlink ref="E399" r:id="rId195"/>
-    <hyperlink ref="E387" r:id="rId196"/>
-    <hyperlink ref="E363" r:id="rId197"/>
-    <hyperlink ref="E233" r:id="rId198"/>
-    <hyperlink ref="E104" r:id="rId199"/>
-    <hyperlink ref="E86" r:id="rId200"/>
-    <hyperlink ref="E173" r:id="rId201"/>
-    <hyperlink ref="E177" r:id="rId202"/>
-    <hyperlink ref="E246" r:id="rId203"/>
-    <hyperlink ref="E262" r:id="rId204"/>
-    <hyperlink ref="E367" r:id="rId205"/>
-    <hyperlink ref="E304" r:id="rId206"/>
-    <hyperlink ref="E152" r:id="rId207" display="mailto:dora.szabo@med.unideb.hu"/>
-    <hyperlink ref="E408" r:id="rId208"/>
-    <hyperlink ref="E275" r:id="rId209"/>
-    <hyperlink ref="E354" r:id="rId210"/>
-    <hyperlink ref="E124" r:id="rId211"/>
-    <hyperlink ref="E159" r:id="rId212"/>
-    <hyperlink ref="E179" r:id="rId213"/>
-    <hyperlink ref="E218" r:id="rId214"/>
-    <hyperlink ref="E347" r:id="rId215"/>
-    <hyperlink ref="E19" r:id="rId216"/>
-    <hyperlink ref="E118" r:id="rId217"/>
-    <hyperlink ref="E188" r:id="rId218"/>
-    <hyperlink ref="E59" r:id="rId219" display="orvosigazgato@petz.gyor.hu"/>
-    <hyperlink ref="E108" r:id="rId220" display="orvosigazgato@petz.gyor.hu"/>
-    <hyperlink ref="E148" r:id="rId221" display="czeinera@petz.gyor.hu"/>
-    <hyperlink ref="E190" r:id="rId222" display="oncol.gyor@gmail.com"/>
-    <hyperlink ref="E157" r:id="rId223" display="hegedusi@petz.gyor.hu"/>
-    <hyperlink ref="E239" r:id="rId224" display="mailto:gunther@petz.gyor.hu"/>
-    <hyperlink ref="E348" r:id="rId225" display="nagyr@petz.gyor.hu"/>
-    <hyperlink ref="E400" r:id="rId226" display="mailto:pulmo@petz.gyor.hu"/>
-    <hyperlink ref="E25" r:id="rId227" display="intenziv@petz.gyor.hu"/>
-    <hyperlink ref="E23" r:id="rId228"/>
-    <hyperlink ref="E24" r:id="rId229"/>
-    <hyperlink ref="E22" r:id="rId230"/>
-    <hyperlink ref="E29" r:id="rId231"/>
-    <hyperlink ref="E31" r:id="rId232"/>
-    <hyperlink ref="E26" r:id="rId233"/>
-    <hyperlink ref="E376:E410" r:id="rId234" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
+    <hyperlink ref="E99" r:id="rId111"/>
+    <hyperlink ref="E355" r:id="rId112"/>
+    <hyperlink ref="E190:E200" r:id="rId113" display="jvarga@mail.fmkorhaz.hu"/>
+    <hyperlink ref="E5" r:id="rId114"/>
+    <hyperlink ref="E202:E206" r:id="rId115" display="bang.agnes@csmekhm.hu"/>
+    <hyperlink ref="E55" r:id="rId116"/>
+    <hyperlink ref="E340" r:id="rId117"/>
+    <hyperlink ref="E263" r:id="rId118"/>
+    <hyperlink ref="E6" r:id="rId119"/>
+    <hyperlink ref="E37" r:id="rId120"/>
+    <hyperlink ref="E4" r:id="rId121"/>
+    <hyperlink ref="E33" r:id="rId122"/>
+    <hyperlink ref="E76" r:id="rId123"/>
+    <hyperlink ref="E98" r:id="rId124"/>
+    <hyperlink ref="E119" r:id="rId125"/>
+    <hyperlink ref="E248" r:id="rId126"/>
+    <hyperlink ref="E269" r:id="rId127"/>
+    <hyperlink ref="E369" r:id="rId128"/>
+    <hyperlink ref="E110" r:id="rId129"/>
+    <hyperlink ref="E128" r:id="rId130"/>
+    <hyperlink ref="E137" r:id="rId131"/>
+    <hyperlink ref="E179" r:id="rId132"/>
+    <hyperlink ref="E200" r:id="rId133"/>
+    <hyperlink ref="E161" r:id="rId134"/>
+    <hyperlink ref="E305" r:id="rId135"/>
+    <hyperlink ref="E193" r:id="rId136"/>
+    <hyperlink ref="E143" r:id="rId137"/>
+    <hyperlink ref="E396" r:id="rId138"/>
+    <hyperlink ref="E62" r:id="rId139"/>
+    <hyperlink ref="E124" r:id="rId140"/>
+    <hyperlink ref="E132" r:id="rId141"/>
+    <hyperlink ref="E221" r:id="rId142"/>
+    <hyperlink ref="E279" r:id="rId143"/>
+    <hyperlink ref="E292" r:id="rId144"/>
+    <hyperlink ref="E313" r:id="rId145"/>
+    <hyperlink ref="E323" r:id="rId146"/>
+    <hyperlink ref="E346" r:id="rId147"/>
+    <hyperlink ref="E354" r:id="rId148"/>
+    <hyperlink ref="E42" r:id="rId149"/>
+    <hyperlink ref="E118" r:id="rId150"/>
+    <hyperlink ref="E294" r:id="rId151"/>
+    <hyperlink ref="E11" r:id="rId152"/>
+    <hyperlink ref="E46" r:id="rId153"/>
+    <hyperlink ref="E63" r:id="rId154"/>
+    <hyperlink ref="E67" r:id="rId155"/>
+    <hyperlink ref="E89" r:id="rId156"/>
+    <hyperlink ref="E100" r:id="rId157"/>
+    <hyperlink ref="E105" r:id="rId158"/>
+    <hyperlink ref="E112" r:id="rId159"/>
+    <hyperlink ref="E126" r:id="rId160"/>
+    <hyperlink ref="E129" r:id="rId161"/>
+    <hyperlink ref="E94" r:id="rId162"/>
+    <hyperlink ref="E145" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E174" r:id="rId165"/>
+    <hyperlink ref="E182" r:id="rId166"/>
+    <hyperlink ref="E178" r:id="rId167"/>
+    <hyperlink ref="E215" r:id="rId168"/>
+    <hyperlink ref="E223" r:id="rId169"/>
+    <hyperlink ref="E243" r:id="rId170"/>
+    <hyperlink ref="E251" r:id="rId171"/>
+    <hyperlink ref="E267" r:id="rId172"/>
+    <hyperlink ref="E277" r:id="rId173"/>
+    <hyperlink ref="E282" r:id="rId174"/>
+    <hyperlink ref="E297" r:id="rId175"/>
+    <hyperlink ref="E315" r:id="rId176"/>
+    <hyperlink ref="E332" r:id="rId177"/>
+    <hyperlink ref="E347" r:id="rId178"/>
+    <hyperlink ref="E357" r:id="rId179"/>
+    <hyperlink ref="E362" r:id="rId180"/>
+    <hyperlink ref="E375" r:id="rId181"/>
+    <hyperlink ref="E66" r:id="rId182"/>
+    <hyperlink ref="E111" r:id="rId183"/>
+    <hyperlink ref="E139" r:id="rId184"/>
+    <hyperlink ref="E242" r:id="rId185"/>
+    <hyperlink ref="E44" r:id="rId186"/>
+    <hyperlink ref="E261" r:id="rId187"/>
+    <hyperlink ref="E295" r:id="rId188"/>
+    <hyperlink ref="E329" r:id="rId189"/>
+    <hyperlink ref="E144" r:id="rId190"/>
+    <hyperlink ref="E287:E289" r:id="rId191" display="golaritso@nyiro-opai.hu"/>
+    <hyperlink ref="E20" r:id="rId192"/>
+    <hyperlink ref="E58" r:id="rId193"/>
+    <hyperlink ref="E393" r:id="rId194"/>
+    <hyperlink ref="E382" r:id="rId195"/>
+    <hyperlink ref="E359" r:id="rId196"/>
+    <hyperlink ref="E231" r:id="rId197"/>
+    <hyperlink ref="E102" r:id="rId198"/>
+    <hyperlink ref="E86" r:id="rId199"/>
+    <hyperlink ref="E171" r:id="rId200"/>
+    <hyperlink ref="E175" r:id="rId201"/>
+    <hyperlink ref="E244" r:id="rId202"/>
+    <hyperlink ref="E260" r:id="rId203"/>
+    <hyperlink ref="E363" r:id="rId204"/>
+    <hyperlink ref="E301" r:id="rId205"/>
+    <hyperlink ref="E150" r:id="rId206" display="mailto:dora.szabo@med.unideb.hu"/>
+    <hyperlink ref="E402" r:id="rId207"/>
+    <hyperlink ref="E273" r:id="rId208"/>
+    <hyperlink ref="E350" r:id="rId209"/>
+    <hyperlink ref="E122" r:id="rId210"/>
+    <hyperlink ref="E157" r:id="rId211"/>
+    <hyperlink ref="E177" r:id="rId212"/>
+    <hyperlink ref="E216" r:id="rId213"/>
+    <hyperlink ref="E343" r:id="rId214"/>
+    <hyperlink ref="E19" r:id="rId215"/>
+    <hyperlink ref="E116" r:id="rId216"/>
+    <hyperlink ref="E186" r:id="rId217"/>
+    <hyperlink ref="E59" r:id="rId218" display="orvosigazgato@petz.gyor.hu"/>
+    <hyperlink ref="E106" r:id="rId219" display="orvosigazgato@petz.gyor.hu"/>
+    <hyperlink ref="E146" r:id="rId220" display="czeinera@petz.gyor.hu"/>
+    <hyperlink ref="E187" r:id="rId221" display="oncol.gyor@gmail.com"/>
+    <hyperlink ref="E154" r:id="rId222" display="hegedusi@petz.gyor.hu"/>
+    <hyperlink ref="E237" r:id="rId223" display="mailto:gunther@petz.gyor.hu"/>
+    <hyperlink ref="E344" r:id="rId224" display="nagyr@petz.gyor.hu"/>
+    <hyperlink ref="E394" r:id="rId225" display="mailto:pulmo@petz.gyor.hu"/>
+    <hyperlink ref="E25" r:id="rId226" display="intenziv@petz.gyor.hu"/>
+    <hyperlink ref="E23" r:id="rId227"/>
+    <hyperlink ref="E24" r:id="rId228"/>
+    <hyperlink ref="E22" r:id="rId229"/>
+    <hyperlink ref="E29" r:id="rId230"/>
+    <hyperlink ref="E31" r:id="rId231"/>
+    <hyperlink ref="E26" r:id="rId232"/>
+    <hyperlink ref="E368:E399" r:id="rId233" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
+    <hyperlink ref="E266" r:id="rId234"/>
+    <hyperlink ref="E395" r:id="rId235" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId235"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
 </worksheet>
 </file>
--- a/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
+++ b/2023_evi_keretszamok_felhasznalasa_szakkepesites_szerint.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="351">
   <si>
     <t>Egészségügyi szolgáltató neve</t>
   </si>
@@ -1075,15 +1075,6 @@
   </si>
   <si>
     <t>szepesvaryzs@petz.gyor.hu, munkaugy@petz.gyor.hu</t>
-  </si>
-  <si>
-    <t>SZTE Szent-Györgyi Abert Klinikai Központ</t>
-  </si>
-  <si>
-    <t>Tarjányi Éva</t>
-  </si>
-  <si>
-    <t>tarjanyi.eva.klara@med.u-szeged.hu</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1696,8 @@
   <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2144,22 +2135,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C26" s="36">
-        <v>3</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
@@ -2178,22 +2159,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C28" s="36">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -2722,22 +2693,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C60" s="36">
-        <v>3</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
@@ -2807,22 +2768,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C65" s="36">
-        <v>1</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
@@ -2926,22 +2877,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C72" s="36">
-        <v>2</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="31"/>
     </row>
     <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3266,22 +3207,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" s="36">
-        <v>2</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="37"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
@@ -3453,22 +3384,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="36">
-        <v>1</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="103" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -3521,22 +3442,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C107" s="36">
-        <v>1</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="107" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="37"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
@@ -3691,22 +3602,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" s="36">
-        <v>2</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="37"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
@@ -3793,22 +3694,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" s="36">
-        <v>1</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E123" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="37"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="31"/>
     </row>
     <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
@@ -3861,22 +3752,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C127" s="36">
-        <v>1</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E127" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="37"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
@@ -3929,22 +3810,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C131" s="36">
-        <v>1</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="37"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="31"/>
     </row>
     <row r="132" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
@@ -4014,22 +3885,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C136" s="36">
-        <v>1</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="37"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="31"/>
     </row>
     <row r="137" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
@@ -4116,22 +3977,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B142" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C142" s="36">
-        <v>1</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="37"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="31"/>
     </row>
     <row r="143" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
@@ -4201,22 +4052,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C147" s="36">
-        <v>1</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E147" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="37"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="31"/>
     </row>
     <row r="148" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
@@ -4269,22 +4110,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C151" s="36">
-        <v>1</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="37"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="31"/>
     </row>
     <row r="152" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
@@ -4337,22 +4168,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C155" s="36">
-        <v>1</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="37"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="31"/>
     </row>
     <row r="156" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
@@ -4643,22 +4464,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C173" s="36">
-        <v>1</v>
-      </c>
-      <c r="D173" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>353</v>
-      </c>
+    <row r="173" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="37"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="32"/>
     </row>
     <row r="174" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
@@ -4694,22 +4505,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C176" s="36">
-        <v>1</v>
-      </c>
-      <c r="D176" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>353</v>
-      </c>
+    <row r="176" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="37"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="32"/>
     </row>
     <row r="177" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
@@ -4898,22 +4699,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C188" s="36">
-        <v>2</v>
-      </c>
-      <c r="D188" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E188" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="188" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="37"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="31"/>
     </row>
     <row r="189" spans="1:5" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
@@ -5306,22 +5097,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C212" s="36">
-        <v>1</v>
-      </c>
-      <c r="D212" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E212" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="37"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="31"/>
     </row>
     <row r="213" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
@@ -5391,22 +5172,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C217" s="36">
-        <v>1</v>
-      </c>
-      <c r="D217" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E217" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="37"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="31"/>
     </row>
     <row r="218" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
@@ -5748,22 +5519,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C238" s="36">
-        <v>1</v>
-      </c>
-      <c r="D238" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E238" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="37"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="31"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
@@ -5867,22 +5628,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B245" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C245" s="36">
-        <v>1</v>
-      </c>
-      <c r="D245" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E245" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="37"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="31"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
@@ -6207,22 +5958,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C265" s="36">
-        <v>2</v>
-      </c>
-      <c r="D265" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E265" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="37"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="36"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="31"/>
     </row>
     <row r="266" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
@@ -6377,22 +6118,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A275" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B275" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C275" s="36">
-        <v>1</v>
-      </c>
-      <c r="D275" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E275" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="275" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="37"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="36"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="31"/>
     </row>
     <row r="276" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A276" s="23" t="s">
@@ -6615,22 +6346,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A289" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C289" s="36">
-        <v>1</v>
-      </c>
-      <c r="D289" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E289" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="289" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="37"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="36"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="31"/>
     </row>
     <row r="290" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A290" s="23" t="s">
@@ -6853,22 +6574,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C303" s="36">
-        <v>2</v>
-      </c>
-      <c r="D303" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E303" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="37"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="36"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="31"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
@@ -6989,22 +6700,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B311" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C311" s="36">
-        <v>1</v>
-      </c>
-      <c r="D311" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E311" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="37"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="36"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="31"/>
     </row>
     <row r="312" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A312" s="23" t="s">
@@ -7125,22 +6826,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A319" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B319" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C319" s="36">
-        <v>1</v>
-      </c>
-      <c r="D319" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E319" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="37"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="36"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="31"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
@@ -7567,22 +7258,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A345" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B345" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C345" s="36">
-        <v>1</v>
-      </c>
-      <c r="D345" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E345" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="37"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="36"/>
+      <c r="D345" s="20"/>
+      <c r="E345" s="31"/>
     </row>
     <row r="346" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A346" s="18" t="s">
@@ -7669,22 +7350,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A351" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C351" s="36">
-        <v>1</v>
-      </c>
-      <c r="D351" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E351" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="37"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="36"/>
+      <c r="D351" s="20"/>
+      <c r="E351" s="31"/>
     </row>
     <row r="352" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A352" s="23" t="s">
@@ -7839,22 +7510,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A361" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C361" s="36">
-        <v>1</v>
-      </c>
-      <c r="D361" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E361" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="37"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="36"/>
+      <c r="D361" s="20"/>
+      <c r="E361" s="31"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
@@ -7890,22 +7551,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A364" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B364" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C364" s="36">
-        <v>1</v>
-      </c>
-      <c r="D364" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E364" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="37"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="36"/>
+      <c r="D364" s="20"/>
+      <c r="E364" s="31"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="18" t="s">
@@ -8230,22 +7881,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A384" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B384" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C384" s="36">
-        <v>1</v>
-      </c>
-      <c r="D384" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E384" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="37"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="20"/>
+      <c r="E384" s="31"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="23" t="s">
@@ -8570,22 +8211,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A404" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B404" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C404" s="36">
-        <v>1</v>
-      </c>
-      <c r="D404" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E404" s="31" t="s">
-        <v>353</v>
-      </c>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="37"/>
+      <c r="B404" s="19"/>
+      <c r="C404" s="36"/>
+      <c r="D404" s="20"/>
+      <c r="E404" s="31"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="37"/>
@@ -8833,6 +8464,7 @@
       <c r="E439" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E404"/>
   <sortState ref="A2:E326">
     <sortCondition ref="B2:B326"/>
     <sortCondition ref="A2:A326"/>
@@ -9069,12 +8701,11 @@
     <hyperlink ref="E22" r:id="rId229"/>
     <hyperlink ref="E29" r:id="rId230"/>
     <hyperlink ref="E31" r:id="rId231"/>
-    <hyperlink ref="E26" r:id="rId232"/>
-    <hyperlink ref="E368:E399" r:id="rId233" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
-    <hyperlink ref="E266" r:id="rId234"/>
-    <hyperlink ref="E395" r:id="rId235" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
+    <hyperlink ref="E368:E399" r:id="rId232" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
+    <hyperlink ref="E266" r:id="rId233"/>
+    <hyperlink ref="E395" r:id="rId234" display="tarjanyi.eva.klara@med.u-szeged.hu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId235"/>
 </worksheet>
 </file>